--- a/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
+++ b/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpower/Google Drive/GIT-project/GitHub/R-tools/ShinyApps/Conditional survival/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpower/Google Drive/GIT-project/GitHub/R-tools/ShinyApps/ConditionalSurvival/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plotsMetadata" sheetId="9" r:id="rId1"/>
@@ -362,13 +362,13 @@
     <t>inflation factor</t>
   </si>
   <si>
-    <t>time factoir</t>
-  </si>
-  <si>
     <t>cs1</t>
   </si>
   <si>
     <t>cs2</t>
+  </si>
+  <si>
+    <t>time factor</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -981,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>72</v>
@@ -1043,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>74</v>
@@ -1308,9 +1308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,11 +1411,11 @@
         <v>1</v>
       </c>
       <c r="L2" s="22">
-        <f>MAX(0,I2-(I2-J2)*$P$3*($P$4 + H2)/(H2 + 1))</f>
-        <v>0.55000000000000004</v>
+        <f>MAX(0, J2 - (I2 - J2)*$P$3*(1 + H2/$P$4/I2))</f>
+        <v>0.82500000000000007</v>
       </c>
       <c r="M2" s="22">
-        <f>MIN(1, I2 + (I2-J2)*$P$3*($P$4 + H2)/(H2 + 1))</f>
+        <f>MIN(1, K2 + (K2 - I2)*$P$3* (1 + H2/$P$4/I2))</f>
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1467,18 +1467,18 @@
         <v>1</v>
       </c>
       <c r="L3" s="22">
-        <f t="shared" ref="L3:L45" si="2">MAX(0,I3-(I3-J3)*$P$3*($P$4 + H3)/(H3 + 1))</f>
-        <v>0.67200000000000004</v>
+        <f t="shared" ref="L3:L45" si="2">MAX(0, J3 - (I3 - J3)*$P$3*(1 + H3/$P$4/I3))</f>
+        <v>0.76700000000000002</v>
       </c>
       <c r="M3" s="22">
-        <f t="shared" ref="M3:M45" si="3">MIN(1, I3 + (I3-J3)*$P$3*($P$4 + H3)/(H3 + 1))</f>
+        <f t="shared" ref="M3:M45" si="3">MIN(1, K3 + (K3 - I3)*$P$3* (1 + H3/$P$4/I3))</f>
         <v>1</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>107</v>
       </c>
       <c r="P3" s="33">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
@@ -1522,14 +1522,14 @@
       </c>
       <c r="L4" s="22">
         <f t="shared" si="2"/>
-        <v>0.70499999999999996</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="M4" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P4" s="13">
         <v>3</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="L5" s="22">
         <f t="shared" si="2"/>
-        <v>0.71300000000000008</v>
+        <v>0.68400000000000016</v>
       </c>
       <c r="M5" s="22">
         <f t="shared" si="3"/>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="L6" s="22">
         <f t="shared" si="2"/>
-        <v>0.71100000000000008</v>
+        <v>0.64250000000000007</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="3"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="L7" s="22">
         <f t="shared" si="2"/>
-        <v>0.71200000000000008</v>
+        <v>0.60925000000000007</v>
       </c>
       <c r="M7" s="22">
         <f t="shared" si="3"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="L8" s="22">
         <f t="shared" si="2"/>
-        <v>0.71028571428571441</v>
+        <v>0.57600000000000007</v>
       </c>
       <c r="M8" s="22">
         <f t="shared" si="3"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
-        <v>0.70687500000000003</v>
+        <v>0.54275000000000007</v>
       </c>
       <c r="M9" s="22">
         <f t="shared" si="3"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
-        <v>0.70233333333333337</v>
+        <v>0.50950000000000006</v>
       </c>
       <c r="M10" s="22">
         <f t="shared" si="3"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
-        <v>0.70109999999999995</v>
+        <v>0.48037499999999989</v>
       </c>
       <c r="M11" s="22">
         <f t="shared" si="3"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="L12" s="22">
         <f t="shared" si="2"/>
-        <v>0.69931818181818184</v>
+        <v>0.45125000000000015</v>
       </c>
       <c r="M12" s="22">
         <f t="shared" si="3"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="L13" s="22">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="3"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>0.60200000000000009</v>
+        <v>0.68450000000000011</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="3"/>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
-        <v>0.57000000000000017</v>
+        <v>0.57700000000000007</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="3"/>
-        <v>0.94999999999999984</v>
+        <v>0.94300000000000017</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -2109,11 +2109,11 @@
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
-        <v>0.56575000000000009</v>
+        <v>0.52725000000000011</v>
       </c>
       <c r="M16" s="22">
         <f t="shared" si="3"/>
-        <v>0.89424999999999988</v>
+        <v>0.93275000000000019</v>
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
@@ -2157,11 +2157,11 @@
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
-        <v>0.54510000000000003</v>
+        <v>0.46925000000000011</v>
       </c>
       <c r="M17" s="22">
         <f t="shared" si="3"/>
-        <v>0.83489999999999986</v>
+        <v>0.91075000000000017</v>
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
-        <v>0.53600000000000014</v>
+        <v>0.42775000000000024</v>
       </c>
       <c r="M18" s="22">
         <f t="shared" si="3"/>
-        <v>0.80399999999999994</v>
+        <v>0.91225000000000023</v>
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
@@ -2253,11 +2253,11 @@
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
-        <v>0.5246428571428573</v>
+        <v>0.38625000000000026</v>
       </c>
       <c r="M19" s="22">
         <f t="shared" si="3"/>
-        <v>0.77535714285714274</v>
+        <v>0.91375000000000028</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>0.51187500000000008</v>
+        <v>0.34475000000000022</v>
       </c>
       <c r="M20" s="22">
         <f t="shared" si="3"/>
-        <v>0.74812499999999993</v>
+        <v>0.91525000000000034</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
@@ -2349,11 +2349,11 @@
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>0.50633333333333341</v>
+        <v>0.31150000000000028</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="3"/>
-        <v>0.73366666666666658</v>
+        <v>0.92850000000000033</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
@@ -2397,11 +2397,11 @@
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
-        <v>0.50020000000000009</v>
+        <v>0.27825000000000027</v>
       </c>
       <c r="M22" s="22">
         <f t="shared" si="3"/>
-        <v>0.71979999999999988</v>
+        <v>0.94175000000000031</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -2445,11 +2445,11 @@
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
-        <v>0.49775000000000003</v>
+        <v>0.24912499999999999</v>
       </c>
       <c r="M23" s="22">
         <f t="shared" si="3"/>
-        <v>0.71224999999999994</v>
+        <v>0.96087499999999992</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="M24" s="22">
         <f t="shared" si="3"/>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>0.53900000000000015</v>
+        <v>0.61025000000000007</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.92975000000000019</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -2589,11 +2589,11 @@
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>0.47250000000000014</v>
+        <v>0.46975000000000017</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="3"/>
-        <v>0.78749999999999987</v>
+        <v>0.79025000000000012</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -2637,11 +2637,11 @@
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>0.39525000000000005</v>
+        <v>0.34575</v>
       </c>
       <c r="M27" s="22">
         <f t="shared" si="3"/>
-        <v>0.62475000000000003</v>
+        <v>0.67425000000000013</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -2685,11 +2685,11 @@
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>0.33179999999999998</v>
+        <v>0.24650000000000008</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" si="3"/>
-        <v>0.50819999999999999</v>
+        <v>0.59350000000000014</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -2733,11 +2733,11 @@
       </c>
       <c r="L29" s="22">
         <f t="shared" si="2"/>
-        <v>0.26400000000000007</v>
+        <v>0.14725000000000016</v>
       </c>
       <c r="M29" s="22">
         <f t="shared" si="3"/>
-        <v>0.39599999999999996</v>
+        <v>0.51275000000000015</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -2781,11 +2781,11 @@
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>0.24214285714285719</v>
+        <v>9.750000000000017E-2</v>
       </c>
       <c r="M30" s="22">
         <f t="shared" si="3"/>
-        <v>0.35785714285714276</v>
+        <v>0.50250000000000017</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
@@ -2829,11 +2829,11 @@
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>0.23562500000000003</v>
+        <v>6.4250000000000196E-2</v>
       </c>
       <c r="M31" s="22">
         <f t="shared" si="3"/>
-        <v>0.34437499999999993</v>
+        <v>0.51575000000000015</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -2877,11 +2877,11 @@
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>0.22050000000000003</v>
+        <v>2.2750000000000076E-2</v>
       </c>
       <c r="M32" s="22">
         <f t="shared" si="3"/>
-        <v>0.31950000000000001</v>
+        <v>0.51725000000000021</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>0.2132</v>
+        <v>0</v>
       </c>
       <c r="M33" s="22">
         <f t="shared" si="3"/>
-        <v>0.30680000000000002</v>
+        <v>0.53050000000000019</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="L34" s="22">
         <f t="shared" si="2"/>
-        <v>0.21802272727272728</v>
+        <v>0</v>
       </c>
       <c r="M34" s="22">
         <f t="shared" si="3"/>
-        <v>0.31197727272727271</v>
+        <v>0.56137500000000029</v>
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="L35" s="22">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="3"/>
@@ -3069,11 +3069,11 @@
       </c>
       <c r="L36" s="22">
         <f t="shared" si="2"/>
-        <v>0.41300000000000014</v>
+        <v>0.4617500000000001</v>
       </c>
       <c r="M36" s="22">
         <f t="shared" si="3"/>
-        <v>0.76699999999999979</v>
+        <v>0.71825000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3115,11 +3115,11 @@
       </c>
       <c r="L37" s="22">
         <f t="shared" si="2"/>
-        <v>0.22500000000000006</v>
+        <v>0.19750000000000009</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="3"/>
-        <v>0.37499999999999989</v>
+        <v>0.40250000000000008</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -3161,11 +3161,11 @@
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>0.16275000000000001</v>
+        <v>9.8250000000000046E-2</v>
       </c>
       <c r="M38" s="22">
         <f t="shared" si="3"/>
-        <v>0.25724999999999998</v>
+        <v>0.32175000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="L39" s="22">
         <f t="shared" si="2"/>
-        <v>0.15010000000000001</v>
+        <v>5.6750000000000078E-2</v>
       </c>
       <c r="M39" s="22">
         <f t="shared" si="3"/>
-        <v>0.22989999999999999</v>
+        <v>0.32325000000000015</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -3253,11 +3253,11 @@
       </c>
       <c r="L40" s="22">
         <f t="shared" si="2"/>
-        <v>0.13600000000000004</v>
+        <v>1.5250000000000152E-2</v>
       </c>
       <c r="M40" s="22">
         <f t="shared" si="3"/>
-        <v>0.20399999999999999</v>
+        <v>0.32475000000000015</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="L41" s="22">
         <f t="shared" si="2"/>
-        <v>0.12510714285714289</v>
+        <v>0</v>
       </c>
       <c r="M41" s="22">
         <f t="shared" si="3"/>
-        <v>0.18489285714285711</v>
+        <v>0.33212500000000017</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -3345,11 +3345,11 @@
       </c>
       <c r="L42" s="22">
         <f t="shared" si="2"/>
-        <v>0.11781250000000001</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22">
         <f t="shared" si="3"/>
-        <v>0.17218749999999997</v>
+        <v>0.34537500000000021</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -3391,11 +3391,11 @@
       </c>
       <c r="L43" s="22">
         <f t="shared" si="2"/>
-        <v>0.10616666666666667</v>
+        <v>0</v>
       </c>
       <c r="M43" s="22">
         <f t="shared" si="3"/>
-        <v>0.15383333333333332</v>
+        <v>0.35275000000000017</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -3437,11 +3437,11 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="2"/>
-        <v>9.8400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="22">
         <f t="shared" si="3"/>
-        <v>0.1416</v>
+        <v>0.36600000000000021</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -3483,11 +3483,11 @@
       </c>
       <c r="L45" s="22">
         <f t="shared" si="2"/>
-        <v>8.2272727272727289E-2</v>
+        <v>0</v>
       </c>
       <c r="M45" s="22">
         <f t="shared" si="3"/>
-        <v>0.11772727272727272</v>
+        <v>0.36750000000000027</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -3528,11 +3528,11 @@
         <v>0.9900000000000001</v>
       </c>
       <c r="L47" s="22">
-        <f t="shared" ref="L47:L70" si="5">MAX(0,I47-(I47-J47)*$P$3)</f>
-        <v>0.76500000000000012</v>
+        <f t="shared" ref="L47:L70" si="5">MAX(0, J47 - (I47 - J47)*$P$3*(1 + H47/$P$4/I47))</f>
+        <v>0.74250000000000005</v>
       </c>
       <c r="M47" s="22">
-        <f t="shared" ref="M47:M70" si="6">MIN(1, I47 + (I47 - J47)*$P$3)</f>
+        <f t="shared" ref="M47:M70" si="6">MIN(1, K47 + (K47 - I47)*$P$3* (1 + H47/$P$4/I47))</f>
         <v>1</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="L48" s="22">
         <f t="shared" si="5"/>
-        <v>0.77350000000000008</v>
+        <v>0.72575000000000012</v>
       </c>
       <c r="M48" s="22">
         <f t="shared" si="6"/>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="L49" s="22">
         <f t="shared" si="5"/>
-        <v>0.79050000000000009</v>
+        <v>0.71725000000000017</v>
       </c>
       <c r="M49" s="22">
         <f t="shared" si="6"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="L50" s="22">
         <f t="shared" si="5"/>
-        <v>0.79050000000000009</v>
+        <v>0.69225000000000014</v>
       </c>
       <c r="M50" s="22">
         <f t="shared" si="6"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="L51" s="22">
         <f t="shared" si="5"/>
-        <v>0.79899999999999993</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="M51" s="22">
         <f t="shared" si="6"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="L52" s="22">
         <f t="shared" si="5"/>
-        <v>0.8075</v>
+        <v>0.65875000000000006</v>
       </c>
       <c r="M52" s="22">
         <f t="shared" si="6"/>
@@ -3805,11 +3805,11 @@
       </c>
       <c r="L53" s="22">
         <f t="shared" si="5"/>
-        <v>0.5525000000000001</v>
+        <v>0.53625000000000012</v>
       </c>
       <c r="M53" s="22">
         <f t="shared" si="6"/>
-        <v>0.74749999999999994</v>
+        <v>0.76375000000000015</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -3851,11 +3851,11 @@
       </c>
       <c r="L54" s="22">
         <f t="shared" si="5"/>
-        <v>0.60350000000000004</v>
+        <v>0.56075000000000008</v>
       </c>
       <c r="M54" s="22">
         <f t="shared" si="6"/>
-        <v>0.81649999999999989</v>
+        <v>0.85925000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="L55" s="22">
         <f t="shared" si="5"/>
-        <v>0.64600000000000013</v>
+        <v>0.57700000000000007</v>
       </c>
       <c r="M55" s="22">
         <f t="shared" si="6"/>
-        <v>0.87399999999999989</v>
+        <v>0.94300000000000017</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="L56" s="22">
         <f t="shared" si="5"/>
-        <v>0.6715000000000001</v>
+        <v>0.57675000000000021</v>
       </c>
       <c r="M56" s="22">
         <f t="shared" si="6"/>
-        <v>0.90849999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -3989,11 +3989,11 @@
       </c>
       <c r="L57" s="22">
         <f t="shared" si="5"/>
-        <v>0.69700000000000006</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="M57" s="22">
         <f t="shared" si="6"/>
-        <v>0.94299999999999984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -4035,11 +4035,11 @@
       </c>
       <c r="L58" s="22">
         <f t="shared" si="5"/>
-        <v>0.72250000000000003</v>
+        <v>0.57625000000000015</v>
       </c>
       <c r="M58" s="22">
         <f t="shared" si="6"/>
-        <v>0.97749999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -4081,11 +4081,11 @@
       </c>
       <c r="L59" s="22">
         <f t="shared" si="5"/>
-        <v>0.28900000000000003</v>
+        <v>0.28050000000000008</v>
       </c>
       <c r="M59" s="22">
         <f t="shared" si="6"/>
-        <v>0.39100000000000001</v>
+        <v>0.39950000000000008</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="L60" s="22">
         <f t="shared" si="5"/>
-        <v>0.32300000000000006</v>
+        <v>0.28850000000000003</v>
       </c>
       <c r="M60" s="22">
         <f t="shared" si="6"/>
-        <v>0.43699999999999994</v>
+        <v>0.47150000000000009</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -4173,11 +4173,11 @@
       </c>
       <c r="L61" s="22">
         <f t="shared" si="5"/>
-        <v>0.374</v>
+        <v>0.31300000000000006</v>
       </c>
       <c r="M61" s="22">
         <f t="shared" si="6"/>
-        <v>0.50600000000000001</v>
+        <v>0.56700000000000017</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4219,11 +4219,11 @@
       </c>
       <c r="L62" s="22">
         <f t="shared" si="5"/>
-        <v>0.4335</v>
+        <v>0.34575</v>
       </c>
       <c r="M62" s="22">
         <f t="shared" si="6"/>
-        <v>0.58650000000000002</v>
+        <v>0.67425000000000013</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -4265,11 +4265,11 @@
       </c>
       <c r="L63" s="22">
         <f t="shared" si="5"/>
-        <v>0.48450000000000004</v>
+        <v>0.37025000000000019</v>
       </c>
       <c r="M63" s="22">
         <f t="shared" si="6"/>
-        <v>0.65549999999999986</v>
+        <v>0.76975000000000016</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -4311,11 +4311,11 @@
       </c>
       <c r="L64" s="22">
         <f t="shared" si="5"/>
-        <v>0.5525000000000001</v>
+        <v>0.41125000000000023</v>
       </c>
       <c r="M64" s="22">
         <f t="shared" si="6"/>
-        <v>0.74749999999999994</v>
+        <v>0.88875000000000026</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -4357,11 +4357,11 @@
       </c>
       <c r="L65" s="22">
         <f t="shared" si="5"/>
-        <v>0.14450000000000002</v>
+        <v>0.14025000000000004</v>
       </c>
       <c r="M65" s="22">
         <f t="shared" si="6"/>
-        <v>0.19550000000000001</v>
+        <v>0.19975000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="L66" s="22">
         <f t="shared" si="5"/>
-        <v>0.20400000000000001</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="M66" s="22">
         <f t="shared" si="6"/>
-        <v>0.27599999999999997</v>
+        <v>0.30700000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4449,11 +4449,11 @@
       </c>
       <c r="L67" s="22">
         <f t="shared" si="5"/>
-        <v>0.255</v>
+        <v>0.19750000000000009</v>
       </c>
       <c r="M67" s="22">
         <f t="shared" si="6"/>
-        <v>0.34499999999999997</v>
+        <v>0.40250000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="L68" s="22">
         <f t="shared" si="5"/>
-        <v>0.30600000000000005</v>
+        <v>0.22200000000000009</v>
       </c>
       <c r="M68" s="22">
         <f t="shared" si="6"/>
-        <v>0.41399999999999992</v>
+        <v>0.49800000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="L69" s="22">
         <f t="shared" si="5"/>
-        <v>0.39949999999999997</v>
+        <v>0.28775000000000006</v>
       </c>
       <c r="M69" s="22">
         <f t="shared" si="6"/>
-        <v>0.54049999999999998</v>
+        <v>0.65225000000000011</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4587,11 +4587,11 @@
       </c>
       <c r="L70" s="22">
         <f t="shared" si="5"/>
-        <v>0.47600000000000015</v>
+        <v>0.3370000000000003</v>
       </c>
       <c r="M70" s="22">
         <f t="shared" si="6"/>
-        <v>0.64399999999999991</v>
+        <v>0.78300000000000025</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4637,12 +4637,12 @@
         <v>0.91980000000000006</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" ref="L72:L119" si="8">MAX(0,I72-(I72-J72)*$P$3)</f>
-        <v>0.89529999999999998</v>
+        <f t="shared" ref="L72:L119" si="8">MAX(0, J72 - (I72 - J72)*$P$3*(1 + H72/$P$4))</f>
+        <v>0.89284999999999992</v>
       </c>
       <c r="M72" s="22">
-        <f t="shared" ref="M72:M119" si="9">MIN(1, I72 + (I72 - J72)*$P$3)</f>
-        <v>0.92470000000000008</v>
+        <f t="shared" ref="M72:M119" si="9">MIN(1, K72 + (K72 - I72)*$P$3* (1 + H72/$P$4))</f>
+        <v>0.92715000000000014</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="L73" s="22">
         <f t="shared" si="8"/>
-        <v>0.90529999999999999</v>
+        <v>0.90039999999999998</v>
       </c>
       <c r="M73" s="22">
         <f t="shared" si="9"/>
-        <v>0.93470000000000009</v>
+        <v>0.9396000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4732,11 +4732,11 @@
       </c>
       <c r="L74" s="22">
         <f t="shared" si="8"/>
-        <v>0.9153</v>
+        <v>0.90795000000000003</v>
       </c>
       <c r="M74" s="22">
         <f t="shared" si="9"/>
-        <v>0.9447000000000001</v>
+        <v>0.95205000000000006</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4779,11 +4779,11 @@
       </c>
       <c r="L75" s="22">
         <f t="shared" si="8"/>
-        <v>0.9252999999999999</v>
+        <v>0.91549999999999987</v>
       </c>
       <c r="M75" s="22">
         <f t="shared" si="9"/>
-        <v>0.95469999999999999</v>
+        <v>0.96450000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4826,11 +4826,11 @@
       </c>
       <c r="L76" s="22">
         <f t="shared" si="8"/>
-        <v>0.93529999999999991</v>
+        <v>0.92304999999999993</v>
       </c>
       <c r="M76" s="22">
         <f t="shared" si="9"/>
-        <v>0.9647</v>
+        <v>0.97694999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4873,11 +4873,11 @@
       </c>
       <c r="L77" s="22">
         <f t="shared" si="8"/>
-        <v>0.94235999999999998</v>
+        <v>0.92471999999999999</v>
       </c>
       <c r="M77" s="22">
         <f t="shared" si="9"/>
-        <v>0.97763999999999995</v>
+        <v>0.99527999999999994</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -4920,11 +4920,11 @@
       </c>
       <c r="L78" s="22">
         <f t="shared" si="8"/>
-        <v>0.79883999999999999</v>
+        <v>0.79197999999999991</v>
       </c>
       <c r="M78" s="22">
         <f t="shared" si="9"/>
-        <v>0.88115999999999994</v>
+        <v>0.88802000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4967,11 +4967,11 @@
       </c>
       <c r="L79" s="22">
         <f t="shared" si="8"/>
-        <v>0.8459000000000001</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="M79" s="22">
         <f t="shared" si="9"/>
-        <v>0.93409999999999993</v>
+        <v>0.94879999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="L80" s="22">
         <f t="shared" si="8"/>
-        <v>0.85002</v>
+        <v>0.82503000000000004</v>
       </c>
       <c r="M80" s="22">
         <f t="shared" si="9"/>
-        <v>0.94998000000000005</v>
+        <v>0.97497</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -5061,11 +5061,11 @@
       </c>
       <c r="L81" s="22">
         <f t="shared" si="8"/>
-        <v>0.8541399999999999</v>
+        <v>0.81689999999999996</v>
       </c>
       <c r="M81" s="22">
         <f t="shared" si="9"/>
-        <v>0.96586000000000016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -5108,11 +5108,11 @@
       </c>
       <c r="L82" s="22">
         <f t="shared" si="8"/>
-        <v>0.86826000000000003</v>
+        <v>0.81681000000000015</v>
       </c>
       <c r="M82" s="22">
         <f t="shared" si="9"/>
-        <v>0.99174000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -5155,11 +5155,11 @@
       </c>
       <c r="L83" s="22">
         <f t="shared" si="8"/>
-        <v>0.83650000000000002</v>
+        <v>0.7629999999999999</v>
       </c>
       <c r="M83" s="22">
         <f t="shared" si="9"/>
-        <v>0.98350000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -5202,11 +5202,11 @@
       </c>
       <c r="L84" s="22">
         <f t="shared" si="8"/>
-        <v>0.70178000000000007</v>
+        <v>0.69541000000000008</v>
       </c>
       <c r="M84" s="22">
         <f t="shared" si="9"/>
-        <v>0.77821999999999991</v>
+        <v>0.7845899999999999</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="L85" s="22">
         <f t="shared" si="8"/>
-        <v>0.72883999999999993</v>
+        <v>0.71511999999999998</v>
       </c>
       <c r="M85" s="22">
         <f t="shared" si="9"/>
-        <v>0.8111600000000001</v>
+        <v>0.82488000000000006</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -5296,11 +5296,11 @@
       </c>
       <c r="L86" s="22">
         <f t="shared" si="8"/>
-        <v>0.75590000000000002</v>
+        <v>0.73385000000000011</v>
       </c>
       <c r="M86" s="22">
         <f t="shared" si="9"/>
-        <v>0.84410000000000007</v>
+        <v>0.86614999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -5343,11 +5343,11 @@
       </c>
       <c r="L87" s="22">
         <f t="shared" si="8"/>
-        <v>0.7829600000000001</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="M87" s="22">
         <f t="shared" si="9"/>
-        <v>0.87703999999999982</v>
+        <v>0.90839999999999987</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -5390,11 +5390,11 @@
       </c>
       <c r="L88" s="22">
         <f t="shared" si="8"/>
-        <v>0.81001999999999996</v>
+        <v>0.76837</v>
       </c>
       <c r="M88" s="22">
         <f t="shared" si="9"/>
-        <v>0.90998000000000001</v>
+        <v>0.95162999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -5437,11 +5437,11 @@
       </c>
       <c r="L89" s="22">
         <f t="shared" si="8"/>
-        <v>0.83001999999999998</v>
+        <v>0.78003999999999996</v>
       </c>
       <c r="M89" s="22">
         <f t="shared" si="9"/>
-        <v>0.92998000000000003</v>
+        <v>0.97996000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -5484,11 +5484,11 @@
       </c>
       <c r="L90" s="22">
         <f t="shared" si="8"/>
-        <v>0.44119999999999998</v>
+        <v>0.43140000000000001</v>
       </c>
       <c r="M90" s="22">
         <f t="shared" si="9"/>
-        <v>0.55879999999999996</v>
+        <v>0.56859999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5531,11 +5531,11 @@
       </c>
       <c r="L91" s="22">
         <f t="shared" si="8"/>
-        <v>0.52356000000000003</v>
+        <v>0.49807999999999997</v>
       </c>
       <c r="M91" s="22">
         <f t="shared" si="9"/>
-        <v>0.67643999999999993</v>
+        <v>0.70191999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -5578,11 +5578,11 @@
       </c>
       <c r="L92" s="22">
         <f t="shared" si="8"/>
-        <v>0.57180000000000009</v>
+        <v>0.52770000000000006</v>
       </c>
       <c r="M92" s="22">
         <f t="shared" si="9"/>
-        <v>0.74819999999999998</v>
+        <v>0.7923</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="L93" s="22">
         <f t="shared" si="8"/>
-        <v>0.59709999999999996</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="M93" s="22">
         <f t="shared" si="9"/>
-        <v>0.80289999999999995</v>
+        <v>0.87149999999999994</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5672,11 +5672,11 @@
       </c>
       <c r="L94" s="22">
         <f t="shared" si="8"/>
-        <v>0.59945999999999999</v>
+        <v>0.49901000000000006</v>
       </c>
       <c r="M94" s="22">
         <f t="shared" si="9"/>
-        <v>0.84053999999999995</v>
+        <v>0.94098999999999988</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="L95" s="22">
         <f t="shared" si="8"/>
-        <v>0.62475999999999998</v>
+        <v>0.48951999999999996</v>
       </c>
       <c r="M95" s="22">
         <f t="shared" si="9"/>
-        <v>0.89524000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="L96" s="22">
         <f t="shared" si="8"/>
-        <v>0.40648000000000006</v>
+        <v>0.40256000000000003</v>
       </c>
       <c r="M96" s="22">
         <f t="shared" si="9"/>
-        <v>0.45351999999999992</v>
+        <v>0.45743999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5813,11 +5813,11 @@
       </c>
       <c r="L97" s="22">
         <f t="shared" si="8"/>
-        <v>0.40354000000000001</v>
+        <v>0.39472000000000002</v>
       </c>
       <c r="M97" s="22">
         <f t="shared" si="9"/>
-        <v>0.45645999999999998</v>
+        <v>0.46527999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5860,11 +5860,11 @@
       </c>
       <c r="L98" s="22">
         <f t="shared" si="8"/>
-        <v>0.4506</v>
+        <v>0.43589999999999995</v>
       </c>
       <c r="M98" s="22">
         <f t="shared" si="9"/>
-        <v>0.50939999999999996</v>
+        <v>0.52410000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5907,11 +5907,11 @@
       </c>
       <c r="L99" s="22">
         <f t="shared" si="8"/>
-        <v>0.50178000000000011</v>
+        <v>0.47630000000000017</v>
       </c>
       <c r="M99" s="22">
         <f t="shared" si="9"/>
-        <v>0.57821999999999996</v>
+        <v>0.6036999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5954,11 +5954,11 @@
       </c>
       <c r="L100" s="22">
         <f t="shared" si="8"/>
-        <v>0.55590000000000006</v>
+        <v>0.51915</v>
       </c>
       <c r="M100" s="22">
         <f t="shared" si="9"/>
-        <v>0.64409999999999989</v>
+        <v>0.68084999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="L101" s="22">
         <f t="shared" si="8"/>
-        <v>0.63002000000000002</v>
+        <v>0.58004</v>
       </c>
       <c r="M101" s="22">
         <f t="shared" si="9"/>
-        <v>0.72998000000000007</v>
+        <v>0.7799600000000001</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -6048,11 +6048,11 @@
       </c>
       <c r="L102" s="22">
         <f t="shared" si="8"/>
-        <v>0.20942</v>
+        <v>0.20599000000000001</v>
       </c>
       <c r="M102" s="22">
         <f t="shared" si="9"/>
-        <v>0.25058000000000002</v>
+        <v>0.25401000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -6095,11 +6095,11 @@
       </c>
       <c r="L103" s="22">
         <f t="shared" si="8"/>
-        <v>0.25765999999999994</v>
+        <v>0.24687999999999993</v>
       </c>
       <c r="M103" s="22">
         <f t="shared" si="9"/>
-        <v>0.32234000000000002</v>
+        <v>0.33312000000000003</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -6142,11 +6142,11 @@
       </c>
       <c r="L104" s="22">
         <f t="shared" si="8"/>
-        <v>0.31590000000000001</v>
+        <v>0.29385000000000006</v>
       </c>
       <c r="M104" s="22">
         <f t="shared" si="9"/>
-        <v>0.40409999999999996</v>
+        <v>0.42614999999999992</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -6189,11 +6189,11 @@
       </c>
       <c r="L105" s="22">
         <f t="shared" si="8"/>
-        <v>0.36119999999999997</v>
+        <v>0.32199999999999995</v>
       </c>
       <c r="M105" s="22">
         <f t="shared" si="9"/>
-        <v>0.4788</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="L106" s="22">
         <f t="shared" si="8"/>
-        <v>0.41355999999999998</v>
+        <v>0.34986</v>
       </c>
       <c r="M106" s="22">
         <f t="shared" si="9"/>
-        <v>0.56644000000000005</v>
+        <v>0.63014000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -6283,11 +6283,11 @@
       </c>
       <c r="L107" s="22">
         <f t="shared" si="8"/>
-        <v>0.45710000000000006</v>
+        <v>0.35420000000000007</v>
       </c>
       <c r="M107" s="22">
         <f t="shared" si="9"/>
-        <v>0.66290000000000004</v>
+        <v>0.76580000000000004</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -6330,11 +6330,11 @@
       </c>
       <c r="L108" s="22">
         <f t="shared" si="8"/>
-        <v>0.20942</v>
+        <v>0.20599000000000001</v>
       </c>
       <c r="M108" s="22">
         <f t="shared" si="9"/>
-        <v>0.25058000000000002</v>
+        <v>0.25401000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -6377,11 +6377,11 @@
       </c>
       <c r="L109" s="22">
         <f t="shared" si="8"/>
-        <v>0.25354000000000004</v>
+        <v>0.24472000000000005</v>
       </c>
       <c r="M109" s="22">
         <f t="shared" si="9"/>
-        <v>0.30646000000000001</v>
+        <v>0.31528</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -6424,11 +6424,11 @@
       </c>
       <c r="L110" s="22">
         <f t="shared" si="8"/>
-        <v>0.30472000000000005</v>
+        <v>0.28708000000000006</v>
       </c>
       <c r="M110" s="22">
         <f t="shared" si="9"/>
-        <v>0.37528</v>
+        <v>0.39291999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="L111" s="22">
         <f t="shared" si="8"/>
-        <v>0.37295999999999996</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="M111" s="22">
         <f t="shared" si="9"/>
-        <v>0.46704000000000001</v>
+        <v>0.49839999999999995</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -6518,11 +6518,11 @@
       </c>
       <c r="L112" s="22">
         <f t="shared" si="8"/>
-        <v>0.44413999999999998</v>
+        <v>0.39759</v>
       </c>
       <c r="M112" s="22">
         <f t="shared" si="9"/>
-        <v>0.55586000000000002</v>
+        <v>0.60240999999999978</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="L113" s="22">
         <f t="shared" si="8"/>
-        <v>0.5253199999999999</v>
+        <v>0.46063999999999983</v>
       </c>
       <c r="M113" s="22">
         <f t="shared" si="9"/>
-        <v>0.65468000000000004</v>
+        <v>0.71936000000000011</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -6612,11 +6612,11 @@
       </c>
       <c r="L114" s="22">
         <f t="shared" si="8"/>
-        <v>0.10529999999999999</v>
+        <v>0.10285</v>
       </c>
       <c r="M114" s="22">
         <f t="shared" si="9"/>
-        <v>0.13469999999999999</v>
+        <v>0.13714999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -6659,11 +6659,11 @@
       </c>
       <c r="L115" s="22">
         <f t="shared" si="8"/>
-        <v>0.15354000000000001</v>
+        <v>0.14472000000000002</v>
       </c>
       <c r="M115" s="22">
         <f t="shared" si="9"/>
-        <v>0.20645999999999998</v>
+        <v>0.21527999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -6706,11 +6706,11 @@
       </c>
       <c r="L116" s="22">
         <f t="shared" si="8"/>
-        <v>0.19884000000000002</v>
+        <v>0.17826</v>
       </c>
       <c r="M116" s="22">
         <f t="shared" si="9"/>
-        <v>0.28115999999999997</v>
+        <v>0.30174000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -6753,11 +6753,11 @@
       </c>
       <c r="L117" s="22">
         <f t="shared" si="8"/>
-        <v>0.26119999999999999</v>
+        <v>0.22199999999999998</v>
       </c>
       <c r="M117" s="22">
         <f t="shared" si="9"/>
-        <v>0.37880000000000003</v>
+        <v>0.41800000000000004</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -6800,11 +6800,11 @@
       </c>
       <c r="L118" s="22">
         <f t="shared" si="8"/>
-        <v>0.32062000000000002</v>
+        <v>0.25446999999999997</v>
       </c>
       <c r="M118" s="22">
         <f t="shared" si="9"/>
-        <v>0.47938000000000003</v>
+        <v>0.54553000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -6847,11 +6847,11 @@
       </c>
       <c r="L119" s="22">
         <f t="shared" si="8"/>
-        <v>0.38121999999999995</v>
+        <v>0.2724399999999999</v>
       </c>
       <c r="M119" s="22">
         <f t="shared" si="9"/>
-        <v>0.59878000000000009</v>
+        <v>0.70756000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
+++ b/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="plotsMetadata" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="110">
   <si>
     <t>Ovarian cancer</t>
   </si>
@@ -187,9 +187,6 @@
     <t>years</t>
   </si>
   <si>
-    <t>5-year relative proportion survival</t>
-  </si>
-  <si>
     <t>5-year conditional survival for ovarian cancer</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
   </si>
   <si>
     <t>Ovarian cancer 10-yr overall survival</t>
-  </si>
-  <si>
-    <t>10-year overall survival</t>
   </si>
   <si>
     <t>10-year survival for ovarian cancer</t>
@@ -369,6 +363,9 @@
   </si>
   <si>
     <t>time factor</t>
+  </si>
+  <si>
+    <t>Relative proportion survival</t>
   </si>
 </sst>
 </file>
@@ -820,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,64 +847,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="U1" s="6"/>
     </row>
@@ -919,10 +916,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="17" t="str">
         <f>CONCATENATE(D2," (",B2,")")</f>
@@ -932,19 +929,19 @@
         <v>20</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>0</v>
@@ -957,10 +954,10 @@
         <v>19</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>42</v>
@@ -981,10 +978,10 @@
         <v>47</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="17" t="str">
         <f t="shared" ref="E3:E4" si="0">CONCATENATE(D3," (",B3,")")</f>
@@ -997,16 +994,16 @@
         <v>39</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>0</v>
@@ -1019,10 +1016,10 @@
         <v>19</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>42</v>
@@ -1043,17 +1040,17 @@
         <v>47</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Ovarian cancer 5-yr conditional survival by age-group and stage (SEER 1988-2001)</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>39</v>
@@ -1065,10 +1062,10 @@
         <v>49</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>0</v>
@@ -1083,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="P4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>42</v>
@@ -1308,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -1346,31 +1343,31 @@
         <v>outcome</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1419,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P2" s="32">
         <v>0.1</v>
@@ -1475,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P3" s="33">
         <v>0.75</v>
@@ -1529,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" s="13">
         <v>3</v>
@@ -4616,10 +4613,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>43</v>
@@ -4663,10 +4660,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>43</v>
@@ -4710,10 +4707,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>43</v>
@@ -4757,10 +4754,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>43</v>
@@ -4804,10 +4801,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>43</v>
@@ -4851,10 +4848,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>43</v>
@@ -4898,10 +4895,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>43</v>
@@ -4945,10 +4942,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>43</v>
@@ -4992,10 +4989,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>43</v>
@@ -5039,10 +5036,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>43</v>
@@ -5086,10 +5083,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>43</v>
@@ -5133,10 +5130,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>43</v>
@@ -5180,10 +5177,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>44</v>
@@ -5227,10 +5224,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>44</v>
@@ -5274,10 +5271,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>44</v>
@@ -5321,10 +5318,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>44</v>
@@ -5368,10 +5365,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>44</v>
@@ -5415,10 +5412,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>44</v>
@@ -5462,10 +5459,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>44</v>
@@ -5509,10 +5506,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>44</v>
@@ -5556,10 +5553,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>44</v>
@@ -5603,10 +5600,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>44</v>
@@ -5650,10 +5647,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>44</v>
@@ -5697,10 +5694,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>44</v>
@@ -5744,10 +5741,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>45</v>
@@ -5791,10 +5788,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>45</v>
@@ -5838,10 +5835,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>45</v>
@@ -5885,10 +5882,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>45</v>
@@ -5932,10 +5929,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>45</v>
@@ -5979,10 +5976,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>45</v>
@@ -6026,10 +6023,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>45</v>
@@ -6073,10 +6070,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>45</v>
@@ -6120,10 +6117,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>45</v>
@@ -6167,10 +6164,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>45</v>
@@ -6214,10 +6211,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>45</v>
@@ -6261,10 +6258,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>45</v>
@@ -6308,10 +6305,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>46</v>
@@ -6355,10 +6352,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>46</v>
@@ -6402,10 +6399,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>46</v>
@@ -6449,10 +6446,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>46</v>
@@ -6496,10 +6493,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>46</v>
@@ -6543,10 +6540,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>46</v>
@@ -6590,10 +6587,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E114" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>46</v>
@@ -6637,10 +6634,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E115" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>46</v>
@@ -6684,10 +6681,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E116" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>46</v>
@@ -6731,10 +6728,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E117" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>46</v>
@@ -6778,10 +6775,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E118" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>46</v>
@@ -6825,10 +6822,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E119" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>46</v>
@@ -7603,19 +7600,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7623,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>40</v>
@@ -7632,7 +7629,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7646,7 +7643,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
+++ b/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plotsMetadata" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="114">
   <si>
     <t>Ovarian cancer</t>
   </si>
@@ -151,9 +151,6 @@
     <t>ExampleCondition</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Conditional survival</t>
   </si>
   <si>
@@ -320,18 +317,6 @@
   </si>
   <si>
     <t>proportion</t>
-  </si>
-  <si>
-    <t>ciMin</t>
-  </si>
-  <si>
-    <t>ciMax</t>
-  </si>
-  <si>
-    <t>wbMin</t>
-  </si>
-  <si>
-    <t>wbMax</t>
   </si>
   <si>
     <t>plotNameAndDataset</t>
@@ -366,6 +351,33 @@
   </si>
   <si>
     <t>Relative proportion survival</t>
+  </si>
+  <si>
+    <t>wbMinProp</t>
+  </si>
+  <si>
+    <t>wbMaxProp</t>
+  </si>
+  <si>
+    <t>ciMinProp</t>
+  </si>
+  <si>
+    <t>ciMaxProp</t>
+  </si>
+  <si>
+    <t>wbMinDur</t>
+  </si>
+  <si>
+    <t>wbMaxDur</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -533,6 +545,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -817,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -847,64 +868,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="U1" s="6"/>
     </row>
@@ -913,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="17" t="str">
         <f>CONCATENATE(D2," (",B2,")")</f>
@@ -929,19 +950,19 @@
         <v>20</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>0</v>
@@ -954,19 +975,19 @@
         <v>19</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" s="19"/>
     </row>
@@ -975,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="17" t="str">
         <f t="shared" ref="E3:E4" si="0">CONCATENATE(D3," (",B3,")")</f>
@@ -991,19 +1012,19 @@
         <v>20</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>0</v>
@@ -1016,19 +1037,19 @@
         <v>19</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" s="19"/>
     </row>
@@ -1037,41 +1058,41 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Ovarian cancer 5-yr conditional survival by age-group and stage (SEER 1988-2001)</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>20</v>
@@ -1080,19 +1101,19 @@
         <v>19</v>
       </c>
       <c r="P4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="R4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="19"/>
     </row>
@@ -1303,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N79" sqref="N79"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,15 +1338,16 @@
     <col min="3" max="3" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="13" customWidth="1"/>
     <col min="5" max="6" width="20" style="13" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="13"/>
-    <col min="9" max="9" width="17.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" style="22"/>
-    <col min="14" max="14" width="10.83203125" style="13"/>
-    <col min="15" max="15" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="13"/>
+    <col min="7" max="10" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="17.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="22"/>
+    <col min="16" max="17" width="10.83203125" style="36"/>
+    <col min="18" max="18" width="10.83203125" style="13"/>
+    <col min="19" max="19" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="str">
         <f>plotsMetadata!A1</f>
         <v>datasetsID</v>
@@ -1343,34 +1365,46 @@
         <v>outcome</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1388,45 +1422,60 @@
         <v>Overall survival</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="23">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <f>MAX(0,I2*(1-$P$2))</f>
+      <c r="I2" s="13">
+        <f>IF(CONCATENATE(F2,G2)=CONCATENATE(F1,G1),I1 + 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
+        <f>MAX(0,K2*(1-$T$2))</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="22">
-        <f>MIN(1,I2*(1+$P$2))</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="22">
-        <f>MAX(0, J2 - (I2 - J2)*$P$3*(1 + H2/$P$4/I2))</f>
+      <c r="M2" s="22">
+        <f>MIN(1,K2*(1+$T$2))</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <f>MAX(0, L2 - (K2 - L2)*$T$3*(1 + J2/$T$4/K2))</f>
         <v>0.82500000000000007</v>
       </c>
-      <c r="M2" s="22">
-        <f>MIN(1, K2 + (K2 - I2)*$P$3* (1 + H2/$P$4/I2))</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="32">
+      <c r="O2" s="22">
+        <f>MIN(1, M2 + (M2 - K2)*$T$3* (1 + J2/$T$4/K2))</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="36">
+        <f>IF(CONCATENATE(F2,G2) = CONCATENATE(F1,G1), MAX(0, J1), J2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36">
+        <f t="shared" ref="Q2:Q45" si="0">IF(CONCATENATE(F2,G2) = CONCATENATE(F3,G3), MIN(10, J3), J2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="32">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1444,43 +1493,55 @@
         <v>Overall survival</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13">
+        <f>IF(CONCATENATE(F3,G3)=CONCATENATE(F2,G2),I2 + 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
         <v>0.96</v>
       </c>
-      <c r="J3" s="22">
-        <f t="shared" ref="J3:J66" si="0">MAX(0,I3*(1-$P$2))</f>
+      <c r="L3" s="22">
+        <f t="shared" ref="L3:L66" si="1">MAX(0,K3*(1-$T$2))</f>
         <v>0.86399999999999999</v>
       </c>
-      <c r="K3" s="22">
-        <f t="shared" ref="K3:K45" si="1">MIN(1,I3*(1+$P$2))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="22">
-        <f t="shared" ref="L3:L45" si="2">MAX(0, J3 - (I3 - J3)*$P$3*(1 + H3/$P$4/I3))</f>
+      <c r="M3" s="22">
+        <f t="shared" ref="M3:M45" si="2">MIN(1,K3*(1+$T$2))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" ref="N3:N45" si="3">MAX(0, L3 - (K3 - L3)*$T$3*(1 + J3/$T$4/K3))</f>
         <v>0.76700000000000002</v>
       </c>
-      <c r="M3" s="22">
-        <f t="shared" ref="M3:M45" si="3">MIN(1, K3 + (K3 - I3)*$P$3* (1 + H3/$P$4/I3))</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="33">
+      <c r="O3" s="22">
+        <f t="shared" ref="O3:O45" si="4">MIN(1, M3 + (M3 - K3)*$T$3* (1 + J3/$T$4/K3))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="36">
+        <f t="shared" ref="P2:P45" si="5">IF(CONCATENATE(F3,G3) = CONCATENATE(F2,G2), MAX(0, J2), J3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="33">
         <v>0.75</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1498,43 +1559,58 @@
         <v>Overall survival</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" ref="I3:I66" si="6">IF(CONCATENATE(F4,G4)=CONCATENATE(F3,G3),I3 + 1, 0)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="23">
         <v>0.94</v>
       </c>
-      <c r="J4" s="22">
+      <c r="L4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="3"/>
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="36">
         <f t="shared" si="0"/>
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K4" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="22">
-        <f t="shared" si="2"/>
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="M4" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="13">
         <v>3</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1552,37 +1628,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+      <c r="K5" s="23">
         <v>0.92</v>
       </c>
-      <c r="J5" s="22">
+      <c r="L5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="3"/>
+        <v>0.68400000000000016</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="36">
         <f t="shared" si="0"/>
-        <v>0.82800000000000007</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.68400000000000016</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1600,37 +1691,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I6" s="23">
+      <c r="J6" s="13">
+        <v>4</v>
+      </c>
+      <c r="K6" s="23">
         <v>0.9</v>
       </c>
-      <c r="J6" s="22">
-        <f t="shared" si="0"/>
+      <c r="L6" s="22">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="K6" s="22">
-        <f t="shared" si="1"/>
+      <c r="M6" s="22">
+        <f t="shared" si="2"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="L6" s="22">
-        <f t="shared" si="2"/>
+      <c r="N6" s="22">
+        <f t="shared" si="3"/>
         <v>0.64250000000000007</v>
       </c>
-      <c r="M6" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O6" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="36">
+        <f>IF(CONCATENATE(F6,G6) = CONCATENATE(F5,G5), MAX(0, J5), J6)</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="36">
+        <f>IF(CONCATENATE(F6,G6) = CONCATENATE(F7,G7), MIN(10, J7), J6)</f>
+        <v>5</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1648,37 +1754,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I7" s="23">
+      <c r="J7" s="13">
+        <v>5</v>
+      </c>
+      <c r="K7" s="23">
         <v>0.89</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
+      <c r="L7" s="22">
+        <f t="shared" si="1"/>
         <v>0.80100000000000005</v>
       </c>
-      <c r="K7" s="22">
-        <f t="shared" si="1"/>
+      <c r="M7" s="22">
+        <f t="shared" si="2"/>
         <v>0.97900000000000009</v>
       </c>
-      <c r="L7" s="22">
-        <f t="shared" si="2"/>
+      <c r="N7" s="22">
+        <f t="shared" si="3"/>
         <v>0.60925000000000007</v>
       </c>
-      <c r="M7" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O7" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" ref="P7:P45" si="7">IF(CONCATENATE(F7,G7) = CONCATENATE(F6,G6), MAX(0, J6), J7)</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="36">
+        <f t="shared" ref="Q7:Q45" si="8">IF(CONCATENATE(F7,G7) = CONCATENATE(F8,G8), MIN(10, J8), J7)</f>
+        <v>6</v>
+      </c>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1696,37 +1817,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I8" s="23">
+      <c r="J8" s="13">
+        <v>6</v>
+      </c>
+      <c r="K8" s="23">
         <v>0.88</v>
       </c>
-      <c r="J8" s="22">
-        <f t="shared" si="0"/>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
         <v>0.79200000000000004</v>
       </c>
-      <c r="K8" s="22">
-        <f t="shared" si="1"/>
+      <c r="M8" s="22">
+        <f t="shared" si="2"/>
         <v>0.96800000000000008</v>
       </c>
-      <c r="L8" s="22">
-        <f t="shared" si="2"/>
+      <c r="N8" s="22">
+        <f t="shared" si="3"/>
         <v>0.57600000000000007</v>
       </c>
-      <c r="M8" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O8" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="36">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1744,37 +1880,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="13">
+        <v>7</v>
+      </c>
+      <c r="K9" s="23">
         <v>0.87</v>
       </c>
-      <c r="J9" s="22">
-        <f t="shared" si="0"/>
+      <c r="L9" s="22">
+        <f t="shared" si="1"/>
         <v>0.78300000000000003</v>
       </c>
-      <c r="K9" s="22">
-        <f t="shared" si="1"/>
+      <c r="M9" s="22">
+        <f t="shared" si="2"/>
         <v>0.95700000000000007</v>
       </c>
-      <c r="L9" s="22">
-        <f t="shared" si="2"/>
+      <c r="N9" s="22">
+        <f t="shared" si="3"/>
         <v>0.54275000000000007</v>
       </c>
-      <c r="M9" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O9" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="36">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="36">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1792,37 +1943,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="13">
+        <v>8</v>
+      </c>
+      <c r="K10" s="23">
         <v>0.86</v>
       </c>
-      <c r="J10" s="22">
-        <f t="shared" si="0"/>
+      <c r="L10" s="22">
+        <f t="shared" si="1"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="K10" s="22">
-        <f t="shared" si="1"/>
+      <c r="M10" s="22">
+        <f t="shared" si="2"/>
         <v>0.94600000000000006</v>
       </c>
-      <c r="L10" s="22">
-        <f t="shared" si="2"/>
+      <c r="N10" s="22">
+        <f t="shared" si="3"/>
         <v>0.50950000000000006</v>
       </c>
-      <c r="M10" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O10" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="36">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="36">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1840,37 +2006,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I11" s="23">
+      <c r="J11" s="13">
+        <v>9</v>
+      </c>
+      <c r="K11" s="23">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
+      <c r="L11" s="22">
+        <f t="shared" si="1"/>
         <v>0.76949999999999996</v>
       </c>
-      <c r="K11" s="22">
-        <f t="shared" si="1"/>
+      <c r="M11" s="22">
+        <f t="shared" si="2"/>
         <v>0.9405</v>
       </c>
-      <c r="L11" s="22">
-        <f t="shared" si="2"/>
+      <c r="N11" s="22">
+        <f t="shared" si="3"/>
         <v>0.48037499999999989</v>
       </c>
-      <c r="M11" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O11" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1888,37 +2069,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I12" s="23">
+      <c r="J12" s="13">
+        <v>10</v>
+      </c>
+      <c r="K12" s="23">
         <v>0.85</v>
       </c>
-      <c r="J12" s="22">
-        <f t="shared" si="0"/>
+      <c r="L12" s="22">
+        <f t="shared" si="1"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="K12" s="22">
-        <f t="shared" si="1"/>
+      <c r="M12" s="22">
+        <f t="shared" si="2"/>
         <v>0.93500000000000005</v>
       </c>
-      <c r="L12" s="22">
-        <f t="shared" si="2"/>
+      <c r="N12" s="22">
+        <f t="shared" si="3"/>
         <v>0.45125000000000015</v>
       </c>
-      <c r="M12" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1936,42 +2132,57 @@
         <v>Overall survival</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="23">
-        <v>1</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="0"/>
+      <c r="I13" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K13" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="M13" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="3"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O13" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -1989,37 +2200,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
         <v>0.86</v>
       </c>
-      <c r="J14" s="22">
-        <f t="shared" si="0"/>
+      <c r="L14" s="22">
+        <f t="shared" si="1"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="K14" s="22">
-        <f t="shared" si="1"/>
+      <c r="M14" s="22">
+        <f t="shared" si="2"/>
         <v>0.94600000000000006</v>
       </c>
-      <c r="L14" s="22">
-        <f t="shared" si="2"/>
+      <c r="N14" s="22">
+        <f t="shared" si="3"/>
         <v>0.68450000000000011</v>
       </c>
-      <c r="M14" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O14" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2037,37 +2263,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="J15" s="13">
+        <v>2</v>
+      </c>
+      <c r="K15" s="23">
         <v>0.76</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="0"/>
+      <c r="L15" s="22">
+        <f t="shared" si="1"/>
         <v>0.68400000000000005</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" si="1"/>
+      <c r="M15" s="22">
+        <f t="shared" si="2"/>
         <v>0.83600000000000008</v>
       </c>
-      <c r="L15" s="22">
-        <f t="shared" si="2"/>
+      <c r="N15" s="22">
+        <f t="shared" si="3"/>
         <v>0.57700000000000007</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" si="3"/>
+      <c r="O15" s="22">
+        <f t="shared" si="4"/>
         <v>0.94300000000000017</v>
       </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P15" s="36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2085,37 +2326,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I16" s="23">
+      <c r="J16" s="13">
+        <v>3</v>
+      </c>
+      <c r="K16" s="23">
         <v>0.73</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="0"/>
+      <c r="L16" s="22">
+        <f t="shared" si="1"/>
         <v>0.65700000000000003</v>
       </c>
-      <c r="K16" s="22">
-        <f t="shared" si="1"/>
+      <c r="M16" s="22">
+        <f t="shared" si="2"/>
         <v>0.80300000000000005</v>
       </c>
-      <c r="L16" s="22">
-        <f t="shared" si="2"/>
+      <c r="N16" s="22">
+        <f t="shared" si="3"/>
         <v>0.52725000000000011</v>
       </c>
-      <c r="M16" s="22">
-        <f t="shared" si="3"/>
+      <c r="O16" s="22">
+        <f t="shared" si="4"/>
         <v>0.93275000000000019</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P16" s="36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="36">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2133,37 +2389,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I17" s="23">
+      <c r="J17" s="13">
+        <v>4</v>
+      </c>
+      <c r="K17" s="23">
         <v>0.69</v>
       </c>
-      <c r="J17" s="22">
-        <f t="shared" si="0"/>
+      <c r="L17" s="22">
+        <f t="shared" si="1"/>
         <v>0.621</v>
       </c>
-      <c r="K17" s="22">
-        <f t="shared" si="1"/>
+      <c r="M17" s="22">
+        <f t="shared" si="2"/>
         <v>0.75900000000000001</v>
       </c>
-      <c r="L17" s="22">
-        <f t="shared" si="2"/>
+      <c r="N17" s="22">
+        <f t="shared" si="3"/>
         <v>0.46925000000000011</v>
       </c>
-      <c r="M17" s="22">
-        <f t="shared" si="3"/>
+      <c r="O17" s="22">
+        <f t="shared" si="4"/>
         <v>0.91075000000000017</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P17" s="36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2181,37 +2452,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I18" s="23">
+      <c r="J18" s="13">
+        <v>5</v>
+      </c>
+      <c r="K18" s="23">
         <v>0.67</v>
       </c>
-      <c r="J18" s="22">
-        <f t="shared" si="0"/>
+      <c r="L18" s="22">
+        <f t="shared" si="1"/>
         <v>0.60300000000000009</v>
       </c>
-      <c r="K18" s="22">
-        <f t="shared" si="1"/>
+      <c r="M18" s="22">
+        <f t="shared" si="2"/>
         <v>0.7370000000000001</v>
       </c>
-      <c r="L18" s="22">
-        <f t="shared" si="2"/>
+      <c r="N18" s="22">
+        <f t="shared" si="3"/>
         <v>0.42775000000000024</v>
       </c>
-      <c r="M18" s="22">
-        <f t="shared" si="3"/>
+      <c r="O18" s="22">
+        <f t="shared" si="4"/>
         <v>0.91225000000000023</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P18" s="36">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="36">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2229,37 +2515,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I19" s="23">
+      <c r="J19" s="13">
+        <v>6</v>
+      </c>
+      <c r="K19" s="23">
         <v>0.65</v>
       </c>
-      <c r="J19" s="22">
-        <f t="shared" si="0"/>
+      <c r="L19" s="22">
+        <f t="shared" si="1"/>
         <v>0.58500000000000008</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" si="1"/>
+      <c r="M19" s="22">
+        <f t="shared" si="2"/>
         <v>0.71500000000000008</v>
       </c>
-      <c r="L19" s="22">
-        <f t="shared" si="2"/>
+      <c r="N19" s="22">
+        <f t="shared" si="3"/>
         <v>0.38625000000000026</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" si="3"/>
+      <c r="O19" s="22">
+        <f t="shared" si="4"/>
         <v>0.91375000000000028</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P19" s="36">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="36">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2277,37 +2578,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I20" s="23">
+      <c r="J20" s="13">
+        <v>7</v>
+      </c>
+      <c r="K20" s="23">
         <v>0.63</v>
       </c>
-      <c r="J20" s="22">
-        <f t="shared" si="0"/>
+      <c r="L20" s="22">
+        <f t="shared" si="1"/>
         <v>0.56700000000000006</v>
       </c>
-      <c r="K20" s="22">
-        <f t="shared" si="1"/>
+      <c r="M20" s="22">
+        <f t="shared" si="2"/>
         <v>0.69300000000000006</v>
       </c>
-      <c r="L20" s="22">
-        <f t="shared" si="2"/>
+      <c r="N20" s="22">
+        <f t="shared" si="3"/>
         <v>0.34475000000000022</v>
       </c>
-      <c r="M20" s="22">
-        <f t="shared" si="3"/>
+      <c r="O20" s="22">
+        <f t="shared" si="4"/>
         <v>0.91525000000000034</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P20" s="36">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="36">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2325,37 +2641,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I21" s="23">
+      <c r="J21" s="13">
+        <v>8</v>
+      </c>
+      <c r="K21" s="23">
         <v>0.62</v>
       </c>
-      <c r="J21" s="22">
-        <f t="shared" si="0"/>
+      <c r="L21" s="22">
+        <f t="shared" si="1"/>
         <v>0.55800000000000005</v>
       </c>
-      <c r="K21" s="22">
-        <f t="shared" si="1"/>
+      <c r="M21" s="22">
+        <f t="shared" si="2"/>
         <v>0.68200000000000005</v>
       </c>
-      <c r="L21" s="22">
-        <f t="shared" si="2"/>
+      <c r="N21" s="22">
+        <f t="shared" si="3"/>
         <v>0.31150000000000028</v>
       </c>
-      <c r="M21" s="22">
-        <f t="shared" si="3"/>
+      <c r="O21" s="22">
+        <f t="shared" si="4"/>
         <v>0.92850000000000033</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P21" s="36">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q21" s="36">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2373,37 +2704,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I22" s="23">
+      <c r="J22" s="13">
+        <v>9</v>
+      </c>
+      <c r="K22" s="23">
         <v>0.61</v>
       </c>
-      <c r="J22" s="22">
-        <f t="shared" si="0"/>
+      <c r="L22" s="22">
+        <f t="shared" si="1"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="K22" s="22">
-        <f t="shared" si="1"/>
+      <c r="M22" s="22">
+        <f t="shared" si="2"/>
         <v>0.67100000000000004</v>
       </c>
-      <c r="L22" s="22">
-        <f t="shared" si="2"/>
+      <c r="N22" s="22">
+        <f t="shared" si="3"/>
         <v>0.27825000000000027</v>
       </c>
-      <c r="M22" s="22">
-        <f t="shared" si="3"/>
+      <c r="O22" s="22">
+        <f t="shared" si="4"/>
         <v>0.94175000000000031</v>
       </c>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P22" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2421,37 +2767,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I23" s="23">
+      <c r="J23" s="13">
+        <v>10</v>
+      </c>
+      <c r="K23" s="23">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J23" s="22">
-        <f t="shared" si="0"/>
+      <c r="L23" s="22">
+        <f t="shared" si="1"/>
         <v>0.54449999999999998</v>
       </c>
-      <c r="K23" s="22">
-        <f t="shared" si="1"/>
+      <c r="M23" s="22">
+        <f t="shared" si="2"/>
         <v>0.66549999999999998</v>
       </c>
-      <c r="L23" s="22">
-        <f t="shared" si="2"/>
+      <c r="N23" s="22">
+        <f t="shared" si="3"/>
         <v>0.24912499999999999</v>
       </c>
-      <c r="M23" s="22">
-        <f t="shared" si="3"/>
+      <c r="O23" s="22">
+        <f t="shared" si="4"/>
         <v>0.96087499999999992</v>
       </c>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P23" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q23" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2469,37 +2830,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="23">
-        <v>1</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" si="0"/>
+      <c r="I24" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="23">
+        <v>1</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K24" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="22">
+      <c r="M24" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="3"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="M24" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O24" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2517,37 +2893,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="13">
-        <v>1</v>
-      </c>
-      <c r="I25" s="23">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="23">
         <v>0.77</v>
       </c>
-      <c r="J25" s="22">
-        <f t="shared" si="0"/>
+      <c r="L25" s="22">
+        <f t="shared" si="1"/>
         <v>0.69300000000000006</v>
       </c>
-      <c r="K25" s="22">
-        <f t="shared" si="1"/>
+      <c r="M25" s="22">
+        <f t="shared" si="2"/>
         <v>0.84700000000000009</v>
       </c>
-      <c r="L25" s="22">
-        <f t="shared" si="2"/>
+      <c r="N25" s="22">
+        <f t="shared" si="3"/>
         <v>0.61025000000000007</v>
       </c>
-      <c r="M25" s="22">
-        <f t="shared" si="3"/>
+      <c r="O25" s="22">
+        <f t="shared" si="4"/>
         <v>0.92975000000000019</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P25" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2565,37 +2956,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I26" s="23">
+      <c r="J26" s="13">
+        <v>2</v>
+      </c>
+      <c r="K26" s="23">
         <v>0.63</v>
       </c>
-      <c r="J26" s="22">
-        <f t="shared" si="0"/>
+      <c r="L26" s="22">
+        <f t="shared" si="1"/>
         <v>0.56700000000000006</v>
       </c>
-      <c r="K26" s="22">
-        <f t="shared" si="1"/>
+      <c r="M26" s="22">
+        <f t="shared" si="2"/>
         <v>0.69300000000000006</v>
       </c>
-      <c r="L26" s="22">
-        <f t="shared" si="2"/>
+      <c r="N26" s="22">
+        <f t="shared" si="3"/>
         <v>0.46975000000000017</v>
       </c>
-      <c r="M26" s="22">
-        <f t="shared" si="3"/>
+      <c r="O26" s="22">
+        <f t="shared" si="4"/>
         <v>0.79025000000000012</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P26" s="36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2613,37 +3019,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I27" s="23">
+      <c r="J27" s="13">
+        <v>3</v>
+      </c>
+      <c r="K27" s="23">
         <v>0.51</v>
       </c>
-      <c r="J27" s="22">
-        <f t="shared" si="0"/>
+      <c r="L27" s="22">
+        <f t="shared" si="1"/>
         <v>0.45900000000000002</v>
       </c>
-      <c r="K27" s="22">
-        <f t="shared" si="1"/>
+      <c r="M27" s="22">
+        <f t="shared" si="2"/>
         <v>0.56100000000000005</v>
       </c>
-      <c r="L27" s="22">
-        <f t="shared" si="2"/>
+      <c r="N27" s="22">
+        <f t="shared" si="3"/>
         <v>0.34575</v>
       </c>
-      <c r="M27" s="22">
-        <f t="shared" si="3"/>
+      <c r="O27" s="22">
+        <f t="shared" si="4"/>
         <v>0.67425000000000013</v>
       </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P27" s="36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="36">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2661,37 +3082,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I28" s="23">
+      <c r="J28" s="13">
+        <v>4</v>
+      </c>
+      <c r="K28" s="23">
         <v>0.42</v>
       </c>
-      <c r="J28" s="22">
-        <f t="shared" si="0"/>
+      <c r="L28" s="22">
+        <f t="shared" si="1"/>
         <v>0.378</v>
       </c>
-      <c r="K28" s="22">
-        <f t="shared" si="1"/>
+      <c r="M28" s="22">
+        <f t="shared" si="2"/>
         <v>0.46200000000000002</v>
       </c>
-      <c r="L28" s="22">
-        <f t="shared" si="2"/>
+      <c r="N28" s="22">
+        <f t="shared" si="3"/>
         <v>0.24650000000000008</v>
       </c>
-      <c r="M28" s="22">
-        <f t="shared" si="3"/>
+      <c r="O28" s="22">
+        <f t="shared" si="4"/>
         <v>0.59350000000000014</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P28" s="36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" s="36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2709,37 +3145,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I29" s="23">
+      <c r="J29" s="13">
+        <v>5</v>
+      </c>
+      <c r="K29" s="23">
         <v>0.33</v>
       </c>
-      <c r="J29" s="22">
-        <f t="shared" si="0"/>
+      <c r="L29" s="22">
+        <f t="shared" si="1"/>
         <v>0.29700000000000004</v>
       </c>
-      <c r="K29" s="22">
-        <f t="shared" si="1"/>
+      <c r="M29" s="22">
+        <f t="shared" si="2"/>
         <v>0.36300000000000004</v>
       </c>
-      <c r="L29" s="22">
-        <f t="shared" si="2"/>
+      <c r="N29" s="22">
+        <f t="shared" si="3"/>
         <v>0.14725000000000016</v>
       </c>
-      <c r="M29" s="22">
-        <f t="shared" si="3"/>
+      <c r="O29" s="22">
+        <f t="shared" si="4"/>
         <v>0.51275000000000015</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P29" s="36">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="36">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2757,37 +3208,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I30" s="23">
+      <c r="J30" s="13">
+        <v>6</v>
+      </c>
+      <c r="K30" s="23">
         <v>0.3</v>
       </c>
-      <c r="J30" s="22">
-        <f t="shared" si="0"/>
+      <c r="L30" s="22">
+        <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
-      <c r="K30" s="22">
-        <f t="shared" si="1"/>
+      <c r="M30" s="22">
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="L30" s="22">
-        <f t="shared" si="2"/>
+      <c r="N30" s="22">
+        <f t="shared" si="3"/>
         <v>9.750000000000017E-2</v>
       </c>
-      <c r="M30" s="22">
-        <f t="shared" si="3"/>
+      <c r="O30" s="22">
+        <f t="shared" si="4"/>
         <v>0.50250000000000017</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P30" s="36">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="36">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2805,37 +3271,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I31" s="23">
+      <c r="J31" s="13">
+        <v>7</v>
+      </c>
+      <c r="K31" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J31" s="22">
-        <f t="shared" si="0"/>
+      <c r="L31" s="22">
+        <f t="shared" si="1"/>
         <v>0.26100000000000001</v>
       </c>
-      <c r="K31" s="22">
-        <f t="shared" si="1"/>
+      <c r="M31" s="22">
+        <f t="shared" si="2"/>
         <v>0.31900000000000001</v>
       </c>
-      <c r="L31" s="22">
-        <f t="shared" si="2"/>
+      <c r="N31" s="22">
+        <f t="shared" si="3"/>
         <v>6.4250000000000196E-2</v>
       </c>
-      <c r="M31" s="22">
-        <f t="shared" si="3"/>
+      <c r="O31" s="22">
+        <f t="shared" si="4"/>
         <v>0.51575000000000015</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P31" s="36">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q31" s="36">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2853,37 +3334,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I32" s="23">
+      <c r="J32" s="13">
+        <v>8</v>
+      </c>
+      <c r="K32" s="23">
         <v>0.27</v>
       </c>
-      <c r="J32" s="22">
-        <f t="shared" si="0"/>
+      <c r="L32" s="22">
+        <f t="shared" si="1"/>
         <v>0.24300000000000002</v>
       </c>
-      <c r="K32" s="22">
-        <f t="shared" si="1"/>
+      <c r="M32" s="22">
+        <f t="shared" si="2"/>
         <v>0.29700000000000004</v>
       </c>
-      <c r="L32" s="22">
-        <f t="shared" si="2"/>
+      <c r="N32" s="22">
+        <f t="shared" si="3"/>
         <v>2.2750000000000076E-2</v>
       </c>
-      <c r="M32" s="22">
-        <f t="shared" si="3"/>
+      <c r="O32" s="22">
+        <f t="shared" si="4"/>
         <v>0.51725000000000021</v>
       </c>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P32" s="36">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q32" s="36">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2901,37 +3397,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I33" s="23">
+      <c r="J33" s="13">
+        <v>9</v>
+      </c>
+      <c r="K33" s="23">
         <v>0.26</v>
       </c>
-      <c r="J33" s="22">
-        <f t="shared" si="0"/>
+      <c r="L33" s="22">
+        <f t="shared" si="1"/>
         <v>0.23400000000000001</v>
       </c>
-      <c r="K33" s="22">
-        <f t="shared" si="1"/>
+      <c r="M33" s="22">
+        <f t="shared" si="2"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="L33" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
+      <c r="N33" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <f t="shared" si="4"/>
         <v>0.53050000000000019</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P33" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q33" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2949,37 +3460,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I34" s="23">
+      <c r="J34" s="13">
+        <v>10</v>
+      </c>
+      <c r="K34" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="J34" s="22">
-        <f t="shared" si="0"/>
+      <c r="L34" s="22">
+        <f t="shared" si="1"/>
         <v>0.23850000000000002</v>
       </c>
-      <c r="K34" s="22">
-        <f t="shared" si="1"/>
+      <c r="M34" s="22">
+        <f t="shared" si="2"/>
         <v>0.29150000000000004</v>
       </c>
-      <c r="L34" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
+      <c r="N34" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <f t="shared" si="4"/>
         <v>0.56137500000000029</v>
       </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P34" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q34" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -2997,37 +3523,52 @@
         <v>Overall survival</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="24">
-        <v>1</v>
-      </c>
-      <c r="J35" s="22">
-        <f t="shared" si="0"/>
+      <c r="I35" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
+        <v>1</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K35" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="22">
+      <c r="M35" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="22">
+        <f t="shared" si="3"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="M35" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O35" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3045,35 +3586,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="13">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="24">
         <v>0.59</v>
       </c>
-      <c r="J36" s="22">
-        <f t="shared" si="0"/>
+      <c r="L36" s="22">
+        <f t="shared" si="1"/>
         <v>0.53100000000000003</v>
       </c>
-      <c r="K36" s="22">
-        <f t="shared" si="1"/>
+      <c r="M36" s="22">
+        <f t="shared" si="2"/>
         <v>0.64900000000000002</v>
       </c>
-      <c r="L36" s="22">
-        <f t="shared" si="2"/>
+      <c r="N36" s="22">
+        <f t="shared" si="3"/>
         <v>0.4617500000000001</v>
       </c>
-      <c r="M36" s="22">
-        <f t="shared" si="3"/>
+      <c r="O36" s="22">
+        <f t="shared" si="4"/>
         <v>0.71825000000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P36" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3091,35 +3647,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I37" s="24">
+      <c r="J37" s="13">
+        <v>2</v>
+      </c>
+      <c r="K37" s="24">
         <v>0.3</v>
       </c>
-      <c r="J37" s="22">
-        <f t="shared" si="0"/>
+      <c r="L37" s="22">
+        <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
-      <c r="K37" s="22">
-        <f t="shared" si="1"/>
+      <c r="M37" s="22">
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="L37" s="22">
-        <f t="shared" si="2"/>
+      <c r="N37" s="22">
+        <f t="shared" si="3"/>
         <v>0.19750000000000009</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" si="3"/>
+      <c r="O37" s="22">
+        <f t="shared" si="4"/>
         <v>0.40250000000000008</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P37" s="36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3137,35 +3708,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I38" s="24">
+      <c r="J38" s="13">
+        <v>3</v>
+      </c>
+      <c r="K38" s="24">
         <v>0.21</v>
       </c>
-      <c r="J38" s="22">
-        <f t="shared" si="0"/>
+      <c r="L38" s="22">
+        <f t="shared" si="1"/>
         <v>0.189</v>
       </c>
-      <c r="K38" s="22">
-        <f t="shared" si="1"/>
+      <c r="M38" s="22">
+        <f t="shared" si="2"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="L38" s="22">
-        <f t="shared" si="2"/>
+      <c r="N38" s="22">
+        <f t="shared" si="3"/>
         <v>9.8250000000000046E-2</v>
       </c>
-      <c r="M38" s="22">
-        <f t="shared" si="3"/>
+      <c r="O38" s="22">
+        <f t="shared" si="4"/>
         <v>0.32175000000000009</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P38" s="36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="36">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3183,35 +3769,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I39" s="24">
+      <c r="J39" s="13">
+        <v>4</v>
+      </c>
+      <c r="K39" s="24">
         <v>0.19</v>
       </c>
-      <c r="J39" s="22">
-        <f t="shared" si="0"/>
+      <c r="L39" s="22">
+        <f t="shared" si="1"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="K39" s="22">
-        <f t="shared" si="1"/>
+      <c r="M39" s="22">
+        <f t="shared" si="2"/>
         <v>0.20900000000000002</v>
       </c>
-      <c r="L39" s="22">
-        <f t="shared" si="2"/>
+      <c r="N39" s="22">
+        <f t="shared" si="3"/>
         <v>5.6750000000000078E-2</v>
       </c>
-      <c r="M39" s="22">
-        <f t="shared" si="3"/>
+      <c r="O39" s="22">
+        <f t="shared" si="4"/>
         <v>0.32325000000000015</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P39" s="36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q39" s="36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3229,35 +3830,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I40" s="24">
+      <c r="J40" s="13">
+        <v>5</v>
+      </c>
+      <c r="K40" s="24">
         <v>0.17</v>
       </c>
-      <c r="J40" s="22">
-        <f t="shared" si="0"/>
+      <c r="L40" s="22">
+        <f t="shared" si="1"/>
         <v>0.15300000000000002</v>
       </c>
-      <c r="K40" s="22">
-        <f t="shared" si="1"/>
+      <c r="M40" s="22">
+        <f t="shared" si="2"/>
         <v>0.18700000000000003</v>
       </c>
-      <c r="L40" s="22">
-        <f t="shared" si="2"/>
+      <c r="N40" s="22">
+        <f t="shared" si="3"/>
         <v>1.5250000000000152E-2</v>
       </c>
-      <c r="M40" s="22">
-        <f t="shared" si="3"/>
+      <c r="O40" s="22">
+        <f t="shared" si="4"/>
         <v>0.32475000000000015</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P40" s="36">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q40" s="36">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3275,35 +3891,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I41" s="24">
+      <c r="J41" s="13">
+        <v>6</v>
+      </c>
+      <c r="K41" s="24">
         <v>0.155</v>
       </c>
-      <c r="J41" s="22">
-        <f t="shared" si="0"/>
+      <c r="L41" s="22">
+        <f t="shared" si="1"/>
         <v>0.13950000000000001</v>
       </c>
-      <c r="K41" s="22">
-        <f t="shared" si="1"/>
+      <c r="M41" s="22">
+        <f t="shared" si="2"/>
         <v>0.17050000000000001</v>
       </c>
-      <c r="L41" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="22">
+      <c r="N41" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <f t="shared" si="4"/>
         <v>0.33212500000000017</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P41" s="36">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q41" s="36">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3321,35 +3952,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I42" s="24">
+      <c r="J42" s="13">
+        <v>7</v>
+      </c>
+      <c r="K42" s="24">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J42" s="22">
-        <f t="shared" si="0"/>
+      <c r="L42" s="22">
+        <f t="shared" si="1"/>
         <v>0.1305</v>
       </c>
-      <c r="K42" s="22">
-        <f t="shared" si="1"/>
+      <c r="M42" s="22">
+        <f t="shared" si="2"/>
         <v>0.1595</v>
       </c>
-      <c r="L42" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="22">
+      <c r="N42" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <f t="shared" si="4"/>
         <v>0.34537500000000021</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P42" s="36">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="36">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3367,35 +4013,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I43" s="24">
+      <c r="J43" s="13">
+        <v>8</v>
+      </c>
+      <c r="K43" s="24">
         <v>0.13</v>
       </c>
-      <c r="J43" s="22">
-        <f t="shared" si="0"/>
+      <c r="L43" s="22">
+        <f t="shared" si="1"/>
         <v>0.11700000000000001</v>
       </c>
-      <c r="K43" s="22">
-        <f t="shared" si="1"/>
+      <c r="M43" s="22">
+        <f t="shared" si="2"/>
         <v>0.14300000000000002</v>
       </c>
-      <c r="L43" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="22">
+      <c r="N43" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" si="4"/>
         <v>0.35275000000000017</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P43" s="36">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q43" s="36">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3413,35 +4074,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I44" s="24">
+      <c r="J44" s="13">
+        <v>9</v>
+      </c>
+      <c r="K44" s="24">
         <v>0.12</v>
       </c>
-      <c r="J44" s="22">
-        <f t="shared" si="0"/>
+      <c r="L44" s="22">
+        <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
-      <c r="K44" s="22">
-        <f t="shared" si="1"/>
+      <c r="M44" s="22">
+        <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="L44" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="22">
+      <c r="N44" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="22">
+        <f t="shared" si="4"/>
         <v>0.36600000000000021</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P44" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q44" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3459,35 +4135,56 @@
         <v>Overall survival</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I45" s="24">
+      <c r="J45" s="13">
+        <v>10</v>
+      </c>
+      <c r="K45" s="24">
         <v>0.1</v>
       </c>
-      <c r="J45" s="22">
-        <f t="shared" si="0"/>
+      <c r="L45" s="22">
+        <f t="shared" si="1"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K45" s="22">
-        <f t="shared" si="1"/>
+      <c r="M45" s="22">
+        <f t="shared" si="2"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="L45" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="22">
+      <c r="N45" s="22">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="22">
+        <f t="shared" si="4"/>
         <v>0.36750000000000027</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P45" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q45" s="36">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I46" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3505,35 +4202,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="13">
         <v>0</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22">
         <v>0.9</v>
       </c>
-      <c r="J47" s="22">
-        <f t="shared" si="0"/>
+      <c r="L47" s="22">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="K47" s="22">
-        <f t="shared" ref="K47:K70" si="4">MIN(1,I47*(1+$P$2))</f>
+      <c r="M47" s="22">
+        <f t="shared" ref="M47:M70" si="9">MIN(1,K47*(1+$T$2))</f>
         <v>0.9900000000000001</v>
       </c>
-      <c r="L47" s="22">
-        <f t="shared" ref="L47:L70" si="5">MAX(0, J47 - (I47 - J47)*$P$3*(1 + H47/$P$4/I47))</f>
+      <c r="N47" s="22">
+        <f t="shared" ref="N47:N70" si="10">MAX(0, L47 - (K47 - L47)*$T$3*(1 + J47/$T$4/K47))</f>
         <v>0.74250000000000005</v>
       </c>
-      <c r="M47" s="22">
-        <f t="shared" ref="M47:M70" si="6">MIN(1, K47 + (K47 - I47)*$P$3* (1 + H47/$P$4/I47))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O47" s="22">
+        <f t="shared" ref="O47:O70" si="11">MIN(1, M47 + (M47 - K47)*$T$3* (1 + J47/$T$4/K47))</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="36">
+        <f t="shared" ref="P47" si="12">IF(CONCATENATE(F47,G47) = CONCATENATE(F46,G46), MAX(0, J46), J47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="36">
+        <f>IF(CONCATENATE(F47,G47) = CONCATENATE(F48,G48), MIN(5, J48), J47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3551,35 +4263,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="13">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1</v>
+      </c>
+      <c r="K48" s="22">
         <v>0.91</v>
       </c>
-      <c r="J48" s="22">
-        <f t="shared" si="0"/>
+      <c r="L48" s="22">
+        <f t="shared" si="1"/>
         <v>0.81900000000000006</v>
       </c>
-      <c r="K48" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L48" s="22">
-        <f t="shared" si="5"/>
+      <c r="M48" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="22">
+        <f t="shared" si="10"/>
         <v>0.72575000000000012</v>
       </c>
-      <c r="M48" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O48" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="36">
+        <f t="shared" ref="P48:P70" si="13">IF(CONCATENATE(F48,G48) = CONCATENATE(F47,G47), MAX(0, J47), J48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="36">
+        <f t="shared" ref="Q48:Q70" si="14">IF(CONCATENATE(F48,G48) = CONCATENATE(F49,G49), MIN(5, J49), J48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3597,35 +4324,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I49" s="22">
+      <c r="J49" s="13">
+        <v>2</v>
+      </c>
+      <c r="K49" s="22">
         <v>0.93</v>
       </c>
-      <c r="J49" s="22">
-        <f t="shared" si="0"/>
+      <c r="L49" s="22">
+        <f t="shared" si="1"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="K49" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L49" s="22">
-        <f t="shared" si="5"/>
+      <c r="M49" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="22">
+        <f t="shared" si="10"/>
         <v>0.71725000000000017</v>
       </c>
-      <c r="M49" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O49" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P49" s="36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="36">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3643,35 +4385,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I50" s="22">
+      <c r="J50" s="13">
+        <v>3</v>
+      </c>
+      <c r="K50" s="22">
         <v>0.93</v>
       </c>
-      <c r="J50" s="22">
-        <f t="shared" si="0"/>
+      <c r="L50" s="22">
+        <f t="shared" si="1"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="K50" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="22">
-        <f t="shared" si="5"/>
+      <c r="M50" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="22">
+        <f t="shared" si="10"/>
         <v>0.69225000000000014</v>
       </c>
-      <c r="M50" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O50" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P50" s="36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q50" s="36">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3689,35 +4446,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I51" s="22">
+      <c r="J51" s="13">
+        <v>4</v>
+      </c>
+      <c r="K51" s="22">
         <v>0.94</v>
       </c>
-      <c r="J51" s="22">
-        <f t="shared" si="0"/>
+      <c r="L51" s="22">
+        <f t="shared" si="1"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="K51" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="22">
-        <f t="shared" si="5"/>
+      <c r="M51" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="22">
+        <f t="shared" si="10"/>
         <v>0.67549999999999999</v>
       </c>
-      <c r="M51" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O51" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="36">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Q51" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3735,35 +4507,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I52" s="22">
+      <c r="J52" s="13">
+        <v>5</v>
+      </c>
+      <c r="K52" s="22">
         <v>0.95</v>
       </c>
-      <c r="J52" s="22">
-        <f t="shared" si="0"/>
+      <c r="L52" s="22">
+        <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="K52" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="22">
-        <f t="shared" si="5"/>
+      <c r="M52" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N52" s="22">
+        <f t="shared" si="10"/>
         <v>0.65875000000000006</v>
       </c>
-      <c r="M52" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O52" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="36">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q52" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3781,35 +4568,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="22">
         <v>0.65</v>
       </c>
-      <c r="J53" s="22">
-        <f t="shared" si="0"/>
+      <c r="L53" s="22">
+        <f t="shared" si="1"/>
         <v>0.58500000000000008</v>
       </c>
-      <c r="K53" s="22">
-        <f t="shared" si="4"/>
+      <c r="M53" s="22">
+        <f t="shared" si="9"/>
         <v>0.71500000000000008</v>
       </c>
-      <c r="L53" s="22">
-        <f t="shared" si="5"/>
+      <c r="N53" s="22">
+        <f t="shared" si="10"/>
         <v>0.53625000000000012</v>
       </c>
-      <c r="M53" s="22">
-        <f t="shared" si="6"/>
+      <c r="O53" s="22">
+        <f t="shared" si="11"/>
         <v>0.76375000000000015</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P53" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="36">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3827,35 +4629,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" s="13">
-        <v>1</v>
-      </c>
-      <c r="I54" s="22">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="13">
+        <v>1</v>
+      </c>
+      <c r="K54" s="22">
         <v>0.71</v>
       </c>
-      <c r="J54" s="22">
-        <f t="shared" si="0"/>
+      <c r="L54" s="22">
+        <f t="shared" si="1"/>
         <v>0.63900000000000001</v>
       </c>
-      <c r="K54" s="22">
-        <f t="shared" si="4"/>
+      <c r="M54" s="22">
+        <f t="shared" si="9"/>
         <v>0.78100000000000003</v>
       </c>
-      <c r="L54" s="22">
-        <f t="shared" si="5"/>
+      <c r="N54" s="22">
+        <f t="shared" si="10"/>
         <v>0.56075000000000008</v>
       </c>
-      <c r="M54" s="22">
-        <f t="shared" si="6"/>
+      <c r="O54" s="22">
+        <f t="shared" si="11"/>
         <v>0.85925000000000007</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P54" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3873,35 +4690,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I55" s="22">
+      <c r="J55" s="13">
+        <v>2</v>
+      </c>
+      <c r="K55" s="22">
         <v>0.76</v>
       </c>
-      <c r="J55" s="22">
-        <f t="shared" si="0"/>
+      <c r="L55" s="22">
+        <f t="shared" si="1"/>
         <v>0.68400000000000005</v>
       </c>
-      <c r="K55" s="22">
-        <f t="shared" si="4"/>
+      <c r="M55" s="22">
+        <f t="shared" si="9"/>
         <v>0.83600000000000008</v>
       </c>
-      <c r="L55" s="22">
-        <f t="shared" si="5"/>
+      <c r="N55" s="22">
+        <f t="shared" si="10"/>
         <v>0.57700000000000007</v>
       </c>
-      <c r="M55" s="22">
-        <f t="shared" si="6"/>
+      <c r="O55" s="22">
+        <f t="shared" si="11"/>
         <v>0.94300000000000017</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P55" s="36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="36">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3919,35 +4751,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I56" s="22">
+      <c r="J56" s="13">
+        <v>3</v>
+      </c>
+      <c r="K56" s="22">
         <v>0.79</v>
       </c>
-      <c r="J56" s="22">
-        <f t="shared" si="0"/>
+      <c r="L56" s="22">
+        <f t="shared" si="1"/>
         <v>0.71100000000000008</v>
       </c>
-      <c r="K56" s="22">
-        <f t="shared" si="4"/>
+      <c r="M56" s="22">
+        <f t="shared" si="9"/>
         <v>0.86900000000000011</v>
       </c>
-      <c r="L56" s="22">
-        <f t="shared" si="5"/>
+      <c r="N56" s="22">
+        <f t="shared" si="10"/>
         <v>0.57675000000000021</v>
       </c>
-      <c r="M56" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O56" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P56" s="36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q56" s="36">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -3965,35 +4812,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I57" s="22">
+      <c r="J57" s="13">
+        <v>4</v>
+      </c>
+      <c r="K57" s="22">
         <v>0.82</v>
       </c>
-      <c r="J57" s="22">
-        <f t="shared" si="0"/>
+      <c r="L57" s="22">
+        <f t="shared" si="1"/>
         <v>0.73799999999999999</v>
       </c>
-      <c r="K57" s="22">
-        <f t="shared" si="4"/>
+      <c r="M57" s="22">
+        <f t="shared" si="9"/>
         <v>0.90200000000000002</v>
       </c>
-      <c r="L57" s="22">
-        <f t="shared" si="5"/>
+      <c r="N57" s="22">
+        <f t="shared" si="10"/>
         <v>0.57650000000000001</v>
       </c>
-      <c r="M57" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O57" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P57" s="36">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Q57" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4011,35 +4873,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I58" s="22">
+      <c r="J58" s="13">
+        <v>5</v>
+      </c>
+      <c r="K58" s="22">
         <v>0.85</v>
       </c>
-      <c r="J58" s="22">
-        <f t="shared" si="0"/>
+      <c r="L58" s="22">
+        <f t="shared" si="1"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="K58" s="22">
-        <f t="shared" si="4"/>
+      <c r="M58" s="22">
+        <f t="shared" si="9"/>
         <v>0.93500000000000005</v>
       </c>
-      <c r="L58" s="22">
-        <f t="shared" si="5"/>
+      <c r="N58" s="22">
+        <f t="shared" si="10"/>
         <v>0.57625000000000015</v>
       </c>
-      <c r="M58" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O58" s="22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="36">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q58" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4057,35 +4934,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="22">
         <v>0.34</v>
       </c>
-      <c r="J59" s="22">
-        <f t="shared" si="0"/>
+      <c r="L59" s="22">
+        <f t="shared" si="1"/>
         <v>0.30600000000000005</v>
       </c>
-      <c r="K59" s="22">
-        <f t="shared" si="4"/>
+      <c r="M59" s="22">
+        <f t="shared" si="9"/>
         <v>0.37400000000000005</v>
       </c>
-      <c r="L59" s="22">
-        <f t="shared" si="5"/>
+      <c r="N59" s="22">
+        <f t="shared" si="10"/>
         <v>0.28050000000000008</v>
       </c>
-      <c r="M59" s="22">
-        <f t="shared" si="6"/>
+      <c r="O59" s="22">
+        <f t="shared" si="11"/>
         <v>0.39950000000000008</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P59" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="36">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4103,35 +4995,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60" s="13">
-        <v>1</v>
-      </c>
-      <c r="I60" s="22">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="13">
+        <v>1</v>
+      </c>
+      <c r="K60" s="22">
         <v>0.38</v>
       </c>
-      <c r="J60" s="22">
-        <f t="shared" si="0"/>
+      <c r="L60" s="22">
+        <f t="shared" si="1"/>
         <v>0.34200000000000003</v>
       </c>
-      <c r="K60" s="22">
-        <f t="shared" si="4"/>
+      <c r="M60" s="22">
+        <f t="shared" si="9"/>
         <v>0.41800000000000004</v>
       </c>
-      <c r="L60" s="22">
-        <f t="shared" si="5"/>
+      <c r="N60" s="22">
+        <f t="shared" si="10"/>
         <v>0.28850000000000003</v>
       </c>
-      <c r="M60" s="22">
-        <f t="shared" si="6"/>
+      <c r="O60" s="22">
+        <f t="shared" si="11"/>
         <v>0.47150000000000009</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P60" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4149,35 +5056,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I61" s="22">
+      <c r="J61" s="13">
+        <v>2</v>
+      </c>
+      <c r="K61" s="22">
         <v>0.44</v>
       </c>
-      <c r="J61" s="22">
-        <f t="shared" si="0"/>
+      <c r="L61" s="22">
+        <f t="shared" si="1"/>
         <v>0.39600000000000002</v>
       </c>
-      <c r="K61" s="22">
-        <f t="shared" si="4"/>
+      <c r="M61" s="22">
+        <f t="shared" si="9"/>
         <v>0.48400000000000004</v>
       </c>
-      <c r="L61" s="22">
-        <f t="shared" si="5"/>
+      <c r="N61" s="22">
+        <f t="shared" si="10"/>
         <v>0.31300000000000006</v>
       </c>
-      <c r="M61" s="22">
-        <f t="shared" si="6"/>
+      <c r="O61" s="22">
+        <f t="shared" si="11"/>
         <v>0.56700000000000017</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P61" s="36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="36">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4195,35 +5117,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I62" s="22">
+      <c r="J62" s="13">
+        <v>3</v>
+      </c>
+      <c r="K62" s="22">
         <v>0.51</v>
       </c>
-      <c r="J62" s="22">
-        <f t="shared" si="0"/>
+      <c r="L62" s="22">
+        <f t="shared" si="1"/>
         <v>0.45900000000000002</v>
       </c>
-      <c r="K62" s="22">
-        <f t="shared" si="4"/>
+      <c r="M62" s="22">
+        <f t="shared" si="9"/>
         <v>0.56100000000000005</v>
       </c>
-      <c r="L62" s="22">
-        <f t="shared" si="5"/>
+      <c r="N62" s="22">
+        <f t="shared" si="10"/>
         <v>0.34575</v>
       </c>
-      <c r="M62" s="22">
-        <f t="shared" si="6"/>
+      <c r="O62" s="22">
+        <f t="shared" si="11"/>
         <v>0.67425000000000013</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P62" s="36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q62" s="36">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4241,35 +5178,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I63" s="22">
+      <c r="J63" s="13">
+        <v>4</v>
+      </c>
+      <c r="K63" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J63" s="22">
-        <f t="shared" si="0"/>
+      <c r="L63" s="22">
+        <f t="shared" si="1"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="K63" s="22">
-        <f t="shared" si="4"/>
+      <c r="M63" s="22">
+        <f t="shared" si="9"/>
         <v>0.627</v>
       </c>
-      <c r="L63" s="22">
-        <f t="shared" si="5"/>
+      <c r="N63" s="22">
+        <f t="shared" si="10"/>
         <v>0.37025000000000019</v>
       </c>
-      <c r="M63" s="22">
-        <f t="shared" si="6"/>
+      <c r="O63" s="22">
+        <f t="shared" si="11"/>
         <v>0.76975000000000016</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P63" s="36">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Q63" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4287,35 +5239,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I64" s="22">
+      <c r="J64" s="13">
+        <v>5</v>
+      </c>
+      <c r="K64" s="22">
         <v>0.65</v>
       </c>
-      <c r="J64" s="22">
-        <f t="shared" si="0"/>
+      <c r="L64" s="22">
+        <f t="shared" si="1"/>
         <v>0.58500000000000008</v>
       </c>
-      <c r="K64" s="22">
-        <f t="shared" si="4"/>
+      <c r="M64" s="22">
+        <f t="shared" si="9"/>
         <v>0.71500000000000008</v>
       </c>
-      <c r="L64" s="22">
-        <f t="shared" si="5"/>
+      <c r="N64" s="22">
+        <f t="shared" si="10"/>
         <v>0.41125000000000023</v>
       </c>
-      <c r="M64" s="22">
-        <f t="shared" si="6"/>
+      <c r="O64" s="22">
+        <f t="shared" si="11"/>
         <v>0.88875000000000026</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P64" s="36">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q64" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4333,35 +5300,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="13">
         <v>0</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="22">
         <v>0.17</v>
       </c>
-      <c r="J65" s="22">
-        <f t="shared" si="0"/>
+      <c r="L65" s="22">
+        <f t="shared" si="1"/>
         <v>0.15300000000000002</v>
       </c>
-      <c r="K65" s="22">
-        <f t="shared" si="4"/>
+      <c r="M65" s="22">
+        <f t="shared" si="9"/>
         <v>0.18700000000000003</v>
       </c>
-      <c r="L65" s="22">
-        <f t="shared" si="5"/>
+      <c r="N65" s="22">
+        <f t="shared" si="10"/>
         <v>0.14025000000000004</v>
       </c>
-      <c r="M65" s="22">
-        <f t="shared" si="6"/>
+      <c r="O65" s="22">
+        <f t="shared" si="11"/>
         <v>0.19975000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P65" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="36">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4379,35 +5361,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" s="13">
-        <v>1</v>
-      </c>
-      <c r="I66" s="22">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="13">
+        <v>1</v>
+      </c>
+      <c r="K66" s="22">
         <v>0.24</v>
       </c>
-      <c r="J66" s="22">
-        <f t="shared" si="0"/>
+      <c r="L66" s="22">
+        <f t="shared" si="1"/>
         <v>0.216</v>
       </c>
-      <c r="K66" s="22">
-        <f t="shared" si="4"/>
+      <c r="M66" s="22">
+        <f t="shared" si="9"/>
         <v>0.26400000000000001</v>
       </c>
-      <c r="L66" s="22">
-        <f t="shared" si="5"/>
+      <c r="N66" s="22">
+        <f t="shared" si="10"/>
         <v>0.17300000000000001</v>
       </c>
-      <c r="M66" s="22">
-        <f t="shared" si="6"/>
+      <c r="O66" s="22">
+        <f t="shared" si="11"/>
         <v>0.30700000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P66" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4425,35 +5422,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
+        <f t="shared" ref="I67:I119" si="15">IF(CONCATENATE(F67,G67)=CONCATENATE(F66,G66),I66 + 1, 0)</f>
         <v>2</v>
       </c>
-      <c r="I67" s="22">
+      <c r="J67" s="13">
+        <v>2</v>
+      </c>
+      <c r="K67" s="22">
         <v>0.3</v>
       </c>
-      <c r="J67" s="22">
-        <f t="shared" ref="J67:J70" si="7">MAX(0,I67*(1-$P$2))</f>
+      <c r="L67" s="22">
+        <f t="shared" ref="L67:L70" si="16">MAX(0,K67*(1-$T$2))</f>
         <v>0.27</v>
       </c>
-      <c r="K67" s="22">
-        <f t="shared" si="4"/>
+      <c r="M67" s="22">
+        <f t="shared" si="9"/>
         <v>0.33</v>
       </c>
-      <c r="L67" s="22">
-        <f t="shared" si="5"/>
+      <c r="N67" s="22">
+        <f t="shared" si="10"/>
         <v>0.19750000000000009</v>
       </c>
-      <c r="M67" s="22">
-        <f t="shared" si="6"/>
+      <c r="O67" s="22">
+        <f t="shared" si="11"/>
         <v>0.40250000000000008</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P67" s="36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="36">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4471,35 +5483,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I68" s="22">
+      <c r="J68" s="13">
+        <v>3</v>
+      </c>
+      <c r="K68" s="22">
         <v>0.36</v>
       </c>
-      <c r="J68" s="22">
-        <f t="shared" si="7"/>
+      <c r="L68" s="22">
+        <f t="shared" si="16"/>
         <v>0.32400000000000001</v>
       </c>
-      <c r="K68" s="22">
-        <f t="shared" si="4"/>
+      <c r="M68" s="22">
+        <f t="shared" si="9"/>
         <v>0.39600000000000002</v>
       </c>
-      <c r="L68" s="22">
-        <f t="shared" si="5"/>
+      <c r="N68" s="22">
+        <f t="shared" si="10"/>
         <v>0.22200000000000009</v>
       </c>
-      <c r="M68" s="22">
-        <f t="shared" si="6"/>
+      <c r="O68" s="22">
+        <f t="shared" si="11"/>
         <v>0.49800000000000011</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P68" s="36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q68" s="36">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4517,35 +5544,50 @@
         <v>Overall survival</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I69" s="22">
+      <c r="J69" s="13">
+        <v>4</v>
+      </c>
+      <c r="K69" s="22">
         <v>0.47</v>
       </c>
-      <c r="J69" s="22">
-        <f t="shared" si="7"/>
+      <c r="L69" s="22">
+        <f t="shared" si="16"/>
         <v>0.42299999999999999</v>
       </c>
-      <c r="K69" s="22">
-        <f t="shared" si="4"/>
+      <c r="M69" s="22">
+        <f t="shared" si="9"/>
         <v>0.51700000000000002</v>
       </c>
-      <c r="L69" s="22">
-        <f t="shared" si="5"/>
+      <c r="N69" s="22">
+        <f t="shared" si="10"/>
         <v>0.28775000000000006</v>
       </c>
-      <c r="M69" s="22">
-        <f t="shared" si="6"/>
+      <c r="O69" s="22">
+        <f t="shared" si="11"/>
         <v>0.65225000000000011</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P69" s="36">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Q69" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4563,39 +5605,58 @@
         <v>Overall survival</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I70" s="22">
+      <c r="J70" s="13">
+        <v>5</v>
+      </c>
+      <c r="K70" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J70" s="22">
-        <f t="shared" si="7"/>
+      <c r="L70" s="22">
+        <f t="shared" si="16"/>
         <v>0.50400000000000011</v>
       </c>
-      <c r="K70" s="22">
-        <f t="shared" si="4"/>
+      <c r="M70" s="22">
+        <f t="shared" si="9"/>
         <v>0.6160000000000001</v>
       </c>
-      <c r="L70" s="22">
-        <f t="shared" si="5"/>
+      <c r="N70" s="22">
+        <f t="shared" si="10"/>
         <v>0.3370000000000003</v>
       </c>
-      <c r="M70" s="22">
-        <f t="shared" si="6"/>
+      <c r="O70" s="22">
+        <f t="shared" si="11"/>
         <v>0.78300000000000025</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P70" s="36">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q70" s="36">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I71" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4613,36 +5674,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72" s="13">
         <v>0</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0</v>
+      </c>
+      <c r="K72" s="22">
         <v>0.91</v>
       </c>
-      <c r="J72" s="22">
+      <c r="L72" s="22">
         <v>0.9002</v>
       </c>
-      <c r="K72" s="22">
+      <c r="M72" s="22">
         <v>0.91980000000000006</v>
       </c>
-      <c r="L72" s="22">
-        <f t="shared" ref="L72:L119" si="8">MAX(0, J72 - (I72 - J72)*$P$3*(1 + H72/$P$4))</f>
+      <c r="N72" s="22">
+        <f t="shared" ref="N72:N119" si="17">MAX(0, L72 - (K72 - L72)*$T$3*(1 + J72/$T$4))</f>
         <v>0.89284999999999992</v>
       </c>
-      <c r="M72" s="22">
-        <f t="shared" ref="M72:M119" si="9">MIN(1, K72 + (K72 - I72)*$P$3* (1 + H72/$P$4))</f>
+      <c r="O72" s="22">
+        <f t="shared" ref="O72:O119" si="18">MIN(1, M72 + (M72 - K72)*$T$3* (1 + J72/$T$4))</f>
         <v>0.92715000000000014</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P72" s="36">
+        <f t="shared" ref="P72" si="19">IF(CONCATENATE(F72,G72) = CONCATENATE(F71,G71), MAX(0, J71), J72)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="36">
+        <f t="shared" ref="Q72" si="20">IF(CONCATENATE(F72,G72) = CONCATENATE(F73,G73), MIN(5, J73), J72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4660,36 +5736,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H73" s="13">
-        <v>1</v>
-      </c>
-      <c r="I73" s="22">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="13">
+        <v>1</v>
+      </c>
+      <c r="K73" s="22">
         <v>0.92</v>
       </c>
-      <c r="J73" s="22">
+      <c r="L73" s="22">
         <v>0.91020000000000001</v>
       </c>
-      <c r="K73" s="22">
+      <c r="M73" s="22">
         <v>0.92980000000000007</v>
       </c>
-      <c r="L73" s="22">
-        <f t="shared" si="8"/>
+      <c r="N73" s="22">
+        <f t="shared" si="17"/>
         <v>0.90039999999999998</v>
       </c>
-      <c r="M73" s="22">
-        <f t="shared" si="9"/>
+      <c r="O73" s="22">
+        <f t="shared" si="18"/>
         <v>0.9396000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P73" s="36">
+        <f t="shared" ref="P73:P119" si="21">IF(CONCATENATE(F73,G73) = CONCATENATE(F72,G72), MAX(0, J72), J73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="36">
+        <f t="shared" ref="Q73:Q119" si="22">IF(CONCATENATE(F73,G73) = CONCATENATE(F74,G74), MIN(5, J74), J73)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4707,36 +5798,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I74" s="22">
+      <c r="J74" s="13">
+        <v>2</v>
+      </c>
+      <c r="K74" s="22">
         <v>0.93</v>
       </c>
-      <c r="J74" s="22">
+      <c r="L74" s="22">
         <v>0.92020000000000002</v>
       </c>
-      <c r="K74" s="22">
+      <c r="M74" s="22">
         <v>0.93980000000000008</v>
       </c>
-      <c r="L74" s="22">
-        <f t="shared" si="8"/>
+      <c r="N74" s="22">
+        <f t="shared" si="17"/>
         <v>0.90795000000000003</v>
       </c>
-      <c r="M74" s="22">
-        <f t="shared" si="9"/>
+      <c r="O74" s="22">
+        <f t="shared" si="18"/>
         <v>0.95205000000000006</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P74" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4754,36 +5860,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I75" s="22">
+      <c r="J75" s="13">
+        <v>3</v>
+      </c>
+      <c r="K75" s="22">
         <v>0.94</v>
       </c>
-      <c r="J75" s="22">
+      <c r="L75" s="22">
         <v>0.93019999999999992</v>
       </c>
-      <c r="K75" s="22">
+      <c r="M75" s="22">
         <v>0.94979999999999998</v>
       </c>
-      <c r="L75" s="22">
-        <f t="shared" si="8"/>
+      <c r="N75" s="22">
+        <f t="shared" si="17"/>
         <v>0.91549999999999987</v>
       </c>
-      <c r="M75" s="22">
-        <f t="shared" si="9"/>
+      <c r="O75" s="22">
+        <f t="shared" si="18"/>
         <v>0.96450000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P75" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q75" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4801,36 +5922,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I76" s="22">
+      <c r="J76" s="13">
+        <v>4</v>
+      </c>
+      <c r="K76" s="22">
         <v>0.95</v>
       </c>
-      <c r="J76" s="22">
+      <c r="L76" s="22">
         <v>0.94019999999999992</v>
       </c>
-      <c r="K76" s="22">
+      <c r="M76" s="22">
         <v>0.95979999999999999</v>
       </c>
-      <c r="L76" s="22">
-        <f t="shared" si="8"/>
+      <c r="N76" s="22">
+        <f t="shared" si="17"/>
         <v>0.92304999999999993</v>
       </c>
-      <c r="M76" s="22">
-        <f t="shared" si="9"/>
+      <c r="O76" s="22">
+        <f t="shared" si="18"/>
         <v>0.97694999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P76" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q76" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4848,36 +5984,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I77" s="22">
+      <c r="J77" s="13">
+        <v>5</v>
+      </c>
+      <c r="K77" s="22">
         <v>0.96</v>
       </c>
-      <c r="J77" s="22">
+      <c r="L77" s="22">
         <v>0.94823999999999997</v>
       </c>
-      <c r="K77" s="22">
+      <c r="M77" s="22">
         <v>0.97175999999999996</v>
       </c>
-      <c r="L77" s="22">
-        <f t="shared" si="8"/>
+      <c r="N77" s="22">
+        <f t="shared" si="17"/>
         <v>0.92471999999999999</v>
       </c>
-      <c r="M77" s="22">
-        <f t="shared" si="9"/>
+      <c r="O77" s="22">
+        <f t="shared" si="18"/>
         <v>0.99527999999999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P77" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q77" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4895,36 +6046,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H78" s="13">
         <v>0</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="22">
         <v>0.84</v>
       </c>
-      <c r="J78" s="22">
+      <c r="L78" s="22">
         <v>0.81255999999999995</v>
       </c>
-      <c r="K78" s="22">
+      <c r="M78" s="22">
         <v>0.86743999999999999</v>
       </c>
-      <c r="L78" s="22">
-        <f t="shared" si="8"/>
+      <c r="N78" s="22">
+        <f t="shared" si="17"/>
         <v>0.79197999999999991</v>
       </c>
-      <c r="M78" s="22">
-        <f t="shared" si="9"/>
+      <c r="O78" s="22">
+        <f t="shared" si="18"/>
         <v>0.88802000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P78" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4942,36 +6108,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79" s="13">
-        <v>1</v>
-      </c>
-      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="13">
+        <v>1</v>
+      </c>
+      <c r="K79" s="22">
         <v>0.89</v>
       </c>
-      <c r="J79" s="22">
+      <c r="L79" s="22">
         <v>0.86060000000000003</v>
       </c>
-      <c r="K79" s="22">
+      <c r="M79" s="22">
         <v>0.9194</v>
       </c>
-      <c r="L79" s="22">
-        <f t="shared" si="8"/>
+      <c r="N79" s="22">
+        <f t="shared" si="17"/>
         <v>0.83120000000000005</v>
       </c>
-      <c r="M79" s="22">
-        <f t="shared" si="9"/>
+      <c r="O79" s="22">
+        <f t="shared" si="18"/>
         <v>0.94879999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P79" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -4989,36 +6170,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H80" s="13">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I80" s="22">
+      <c r="J80" s="13">
+        <v>2</v>
+      </c>
+      <c r="K80" s="22">
         <v>0.9</v>
       </c>
-      <c r="J80" s="22">
+      <c r="L80" s="22">
         <v>0.86668000000000001</v>
       </c>
-      <c r="K80" s="22">
+      <c r="M80" s="22">
         <v>0.93332000000000004</v>
       </c>
-      <c r="L80" s="22">
-        <f t="shared" si="8"/>
+      <c r="N80" s="22">
+        <f t="shared" si="17"/>
         <v>0.82503000000000004</v>
       </c>
-      <c r="M80" s="22">
-        <f t="shared" si="9"/>
+      <c r="O80" s="22">
+        <f t="shared" si="18"/>
         <v>0.97497</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P80" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5036,36 +6232,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I81" s="22">
+      <c r="J81" s="13">
+        <v>3</v>
+      </c>
+      <c r="K81" s="22">
         <v>0.91</v>
       </c>
-      <c r="J81" s="22">
+      <c r="L81" s="22">
         <v>0.87275999999999998</v>
       </c>
-      <c r="K81" s="22">
+      <c r="M81" s="22">
         <v>0.94724000000000008</v>
       </c>
-      <c r="L81" s="22">
-        <f t="shared" si="8"/>
+      <c r="N81" s="22">
+        <f t="shared" si="17"/>
         <v>0.81689999999999996</v>
       </c>
-      <c r="M81" s="22">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P81" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q81" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5083,36 +6294,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I82" s="22">
+      <c r="J82" s="13">
+        <v>4</v>
+      </c>
+      <c r="K82" s="22">
         <v>0.93</v>
       </c>
-      <c r="J82" s="22">
+      <c r="L82" s="22">
         <v>0.88884000000000007</v>
       </c>
-      <c r="K82" s="22">
+      <c r="M82" s="22">
         <v>0.97116000000000002</v>
       </c>
-      <c r="L82" s="22">
-        <f t="shared" si="8"/>
+      <c r="N82" s="22">
+        <f t="shared" si="17"/>
         <v>0.81681000000000015</v>
       </c>
-      <c r="M82" s="22">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O82" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P82" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q82" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5130,36 +6356,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I83" s="22">
+      <c r="J83" s="13">
+        <v>5</v>
+      </c>
+      <c r="K83" s="22">
         <v>0.91</v>
       </c>
-      <c r="J83" s="22">
+      <c r="L83" s="22">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K83" s="22">
+      <c r="M83" s="22">
         <v>0.95900000000000007</v>
       </c>
-      <c r="L83" s="22">
-        <f t="shared" si="8"/>
+      <c r="N83" s="22">
+        <f t="shared" si="17"/>
         <v>0.7629999999999999</v>
       </c>
-      <c r="M83" s="22">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O83" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P83" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q83" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5177,36 +6418,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H84" s="13">
         <v>0</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="13">
+        <v>0</v>
+      </c>
+      <c r="K84" s="22">
         <v>0.74</v>
       </c>
-      <c r="J84" s="22">
+      <c r="L84" s="22">
         <v>0.71452000000000004</v>
       </c>
-      <c r="K84" s="22">
+      <c r="M84" s="22">
         <v>0.76547999999999994</v>
       </c>
-      <c r="L84" s="22">
-        <f t="shared" si="8"/>
+      <c r="N84" s="22">
+        <f t="shared" si="17"/>
         <v>0.69541000000000008</v>
       </c>
-      <c r="M84" s="22">
-        <f t="shared" si="9"/>
+      <c r="O84" s="22">
+        <f t="shared" si="18"/>
         <v>0.7845899999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P84" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5224,36 +6480,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85" s="13">
-        <v>1</v>
-      </c>
-      <c r="I85" s="22">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="13">
+        <v>1</v>
+      </c>
+      <c r="K85" s="22">
         <v>0.77</v>
       </c>
-      <c r="J85" s="22">
+      <c r="L85" s="22">
         <v>0.74256</v>
       </c>
-      <c r="K85" s="22">
+      <c r="M85" s="22">
         <v>0.79744000000000004</v>
       </c>
-      <c r="L85" s="22">
-        <f t="shared" si="8"/>
+      <c r="N85" s="22">
+        <f t="shared" si="17"/>
         <v>0.71511999999999998</v>
       </c>
-      <c r="M85" s="22">
-        <f t="shared" si="9"/>
+      <c r="O85" s="22">
+        <f t="shared" si="18"/>
         <v>0.82488000000000006</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P85" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5271,36 +6542,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I86" s="22">
+      <c r="J86" s="13">
+        <v>2</v>
+      </c>
+      <c r="K86" s="22">
         <v>0.8</v>
       </c>
-      <c r="J86" s="22">
+      <c r="L86" s="22">
         <v>0.77060000000000006</v>
       </c>
-      <c r="K86" s="22">
+      <c r="M86" s="22">
         <v>0.82940000000000003</v>
       </c>
-      <c r="L86" s="22">
-        <f t="shared" si="8"/>
+      <c r="N86" s="22">
+        <f t="shared" si="17"/>
         <v>0.73385000000000011</v>
       </c>
-      <c r="M86" s="22">
-        <f t="shared" si="9"/>
+      <c r="O86" s="22">
+        <f t="shared" si="18"/>
         <v>0.86614999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P86" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q86" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5318,36 +6604,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I87" s="22">
+      <c r="J87" s="13">
+        <v>3</v>
+      </c>
+      <c r="K87" s="22">
         <v>0.83</v>
       </c>
-      <c r="J87" s="22">
+      <c r="L87" s="22">
         <v>0.79864000000000002</v>
       </c>
-      <c r="K87" s="22">
+      <c r="M87" s="22">
         <v>0.8613599999999999</v>
       </c>
-      <c r="L87" s="22">
-        <f t="shared" si="8"/>
+      <c r="N87" s="22">
+        <f t="shared" si="17"/>
         <v>0.75160000000000005</v>
       </c>
-      <c r="M87" s="22">
-        <f t="shared" si="9"/>
+      <c r="O87" s="22">
+        <f t="shared" si="18"/>
         <v>0.90839999999999987</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P87" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q87" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5365,36 +6666,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I88" s="22">
+      <c r="J88" s="13">
+        <v>4</v>
+      </c>
+      <c r="K88" s="22">
         <v>0.86</v>
       </c>
-      <c r="J88" s="22">
+      <c r="L88" s="22">
         <v>0.82667999999999997</v>
       </c>
-      <c r="K88" s="22">
+      <c r="M88" s="22">
         <v>0.89332</v>
       </c>
-      <c r="L88" s="22">
-        <f t="shared" si="8"/>
+      <c r="N88" s="22">
+        <f t="shared" si="17"/>
         <v>0.76837</v>
       </c>
-      <c r="M88" s="22">
-        <f t="shared" si="9"/>
+      <c r="O88" s="22">
+        <f t="shared" si="18"/>
         <v>0.95162999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P88" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q88" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5412,36 +6728,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I89" s="22">
+      <c r="J89" s="13">
+        <v>5</v>
+      </c>
+      <c r="K89" s="22">
         <v>0.88</v>
       </c>
-      <c r="J89" s="22">
+      <c r="L89" s="22">
         <v>0.84667999999999999</v>
       </c>
-      <c r="K89" s="22">
+      <c r="M89" s="22">
         <v>0.91332000000000002</v>
       </c>
-      <c r="L89" s="22">
-        <f t="shared" si="8"/>
+      <c r="N89" s="22">
+        <f t="shared" si="17"/>
         <v>0.78003999999999996</v>
       </c>
-      <c r="M89" s="22">
-        <f t="shared" si="9"/>
+      <c r="O89" s="22">
+        <f t="shared" si="18"/>
         <v>0.97996000000000005</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P89" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q89" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5459,36 +6790,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" s="13">
         <v>0</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="13">
+        <v>0</v>
+      </c>
+      <c r="K90" s="22">
         <v>0.5</v>
       </c>
-      <c r="J90" s="22">
+      <c r="L90" s="22">
         <v>0.46079999999999999</v>
       </c>
-      <c r="K90" s="22">
+      <c r="M90" s="22">
         <v>0.53920000000000001</v>
       </c>
-      <c r="L90" s="22">
-        <f t="shared" si="8"/>
+      <c r="N90" s="22">
+        <f t="shared" si="17"/>
         <v>0.43140000000000001</v>
       </c>
-      <c r="M90" s="22">
-        <f t="shared" si="9"/>
+      <c r="O90" s="22">
+        <f t="shared" si="18"/>
         <v>0.56859999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P90" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5506,36 +6852,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H91" s="13">
-        <v>1</v>
-      </c>
-      <c r="I91" s="22">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="13">
+        <v>1</v>
+      </c>
+      <c r="K91" s="22">
         <v>0.6</v>
       </c>
-      <c r="J91" s="22">
+      <c r="L91" s="22">
         <v>0.54903999999999997</v>
       </c>
-      <c r="K91" s="22">
+      <c r="M91" s="22">
         <v>0.65095999999999998</v>
       </c>
-      <c r="L91" s="22">
-        <f t="shared" si="8"/>
+      <c r="N91" s="22">
+        <f t="shared" si="17"/>
         <v>0.49807999999999997</v>
       </c>
-      <c r="M91" s="22">
-        <f t="shared" si="9"/>
+      <c r="O91" s="22">
+        <f t="shared" si="18"/>
         <v>0.70191999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P91" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5553,36 +6914,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I92" s="22">
+      <c r="J92" s="13">
+        <v>2</v>
+      </c>
+      <c r="K92" s="22">
         <v>0.66</v>
       </c>
-      <c r="J92" s="22">
+      <c r="L92" s="22">
         <v>0.60120000000000007</v>
       </c>
-      <c r="K92" s="22">
+      <c r="M92" s="22">
         <v>0.71879999999999999</v>
       </c>
-      <c r="L92" s="22">
-        <f t="shared" si="8"/>
+      <c r="N92" s="22">
+        <f t="shared" si="17"/>
         <v>0.52770000000000006</v>
       </c>
-      <c r="M92" s="22">
-        <f t="shared" si="9"/>
+      <c r="O92" s="22">
+        <f t="shared" si="18"/>
         <v>0.7923</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P92" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q92" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5600,36 +6976,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I93" s="22">
+      <c r="J93" s="13">
+        <v>3</v>
+      </c>
+      <c r="K93" s="22">
         <v>0.7</v>
       </c>
-      <c r="J93" s="22">
+      <c r="L93" s="22">
         <v>0.63139999999999996</v>
       </c>
-      <c r="K93" s="22">
+      <c r="M93" s="22">
         <v>0.76859999999999995</v>
       </c>
-      <c r="L93" s="22">
-        <f t="shared" si="8"/>
+      <c r="N93" s="22">
+        <f t="shared" si="17"/>
         <v>0.52849999999999997</v>
       </c>
-      <c r="M93" s="22">
-        <f t="shared" si="9"/>
+      <c r="O93" s="22">
+        <f t="shared" si="18"/>
         <v>0.87149999999999994</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P93" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q93" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5647,36 +7038,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I94" s="22">
+      <c r="J94" s="13">
+        <v>4</v>
+      </c>
+      <c r="K94" s="22">
         <v>0.72</v>
       </c>
-      <c r="J94" s="22">
+      <c r="L94" s="22">
         <v>0.63963999999999999</v>
       </c>
-      <c r="K94" s="22">
+      <c r="M94" s="22">
         <v>0.80035999999999996</v>
       </c>
-      <c r="L94" s="22">
-        <f t="shared" si="8"/>
+      <c r="N94" s="22">
+        <f t="shared" si="17"/>
         <v>0.49901000000000006</v>
       </c>
-      <c r="M94" s="22">
-        <f t="shared" si="9"/>
+      <c r="O94" s="22">
+        <f t="shared" si="18"/>
         <v>0.94098999999999988</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P94" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q94" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5694,36 +7100,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H95" s="13">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I95" s="22">
+      <c r="J95" s="13">
+        <v>5</v>
+      </c>
+      <c r="K95" s="22">
         <v>0.76</v>
       </c>
-      <c r="J95" s="22">
+      <c r="L95" s="22">
         <v>0.66983999999999999</v>
       </c>
-      <c r="K95" s="22">
+      <c r="M95" s="22">
         <v>0.85016000000000003</v>
       </c>
-      <c r="L95" s="22">
-        <f t="shared" si="8"/>
+      <c r="N95" s="22">
+        <f t="shared" si="17"/>
         <v>0.48951999999999996</v>
       </c>
-      <c r="M95" s="22">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O95" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P95" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q95" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5741,36 +7162,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H96" s="13">
         <v>0</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="22">
         <v>0.43</v>
       </c>
-      <c r="J96" s="22">
+      <c r="L96" s="22">
         <v>0.41432000000000002</v>
       </c>
-      <c r="K96" s="22">
+      <c r="M96" s="22">
         <v>0.44567999999999997</v>
       </c>
-      <c r="L96" s="22">
-        <f t="shared" si="8"/>
+      <c r="N96" s="22">
+        <f t="shared" si="17"/>
         <v>0.40256000000000003</v>
       </c>
-      <c r="M96" s="22">
-        <f t="shared" si="9"/>
+      <c r="O96" s="22">
+        <f t="shared" si="18"/>
         <v>0.45743999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P96" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5788,36 +7224,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H97" s="13">
-        <v>1</v>
-      </c>
-      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J97" s="13">
+        <v>1</v>
+      </c>
+      <c r="K97" s="22">
         <v>0.43</v>
       </c>
-      <c r="J97" s="22">
+      <c r="L97" s="22">
         <v>0.41236</v>
       </c>
-      <c r="K97" s="22">
+      <c r="M97" s="22">
         <v>0.44763999999999998</v>
       </c>
-      <c r="L97" s="22">
-        <f t="shared" si="8"/>
+      <c r="N97" s="22">
+        <f t="shared" si="17"/>
         <v>0.39472000000000002</v>
       </c>
-      <c r="M97" s="22">
-        <f t="shared" si="9"/>
+      <c r="O97" s="22">
+        <f t="shared" si="18"/>
         <v>0.46527999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P97" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5835,36 +7286,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H98" s="13">
+        <v>0</v>
+      </c>
+      <c r="I98" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I98" s="22">
+      <c r="J98" s="13">
+        <v>2</v>
+      </c>
+      <c r="K98" s="22">
         <v>0.48</v>
       </c>
-      <c r="J98" s="22">
+      <c r="L98" s="22">
         <v>0.46039999999999998</v>
       </c>
-      <c r="K98" s="22">
+      <c r="M98" s="22">
         <v>0.49959999999999999</v>
       </c>
-      <c r="L98" s="22">
-        <f t="shared" si="8"/>
+      <c r="N98" s="22">
+        <f t="shared" si="17"/>
         <v>0.43589999999999995</v>
       </c>
-      <c r="M98" s="22">
-        <f t="shared" si="9"/>
+      <c r="O98" s="22">
+        <f t="shared" si="18"/>
         <v>0.52410000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P98" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q98" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5882,36 +7348,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I99" s="22">
+      <c r="J99" s="13">
+        <v>3</v>
+      </c>
+      <c r="K99" s="22">
         <v>0.54</v>
       </c>
-      <c r="J99" s="22">
+      <c r="L99" s="22">
         <v>0.51452000000000009</v>
       </c>
-      <c r="K99" s="22">
+      <c r="M99" s="22">
         <v>0.56547999999999998</v>
       </c>
-      <c r="L99" s="22">
-        <f t="shared" si="8"/>
+      <c r="N99" s="22">
+        <f t="shared" si="17"/>
         <v>0.47630000000000017</v>
       </c>
-      <c r="M99" s="22">
-        <f t="shared" si="9"/>
+      <c r="O99" s="22">
+        <f t="shared" si="18"/>
         <v>0.6036999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P99" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q99" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5929,36 +7410,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I100" s="22">
+      <c r="J100" s="13">
+        <v>4</v>
+      </c>
+      <c r="K100" s="22">
         <v>0.6</v>
       </c>
-      <c r="J100" s="22">
+      <c r="L100" s="22">
         <v>0.5706</v>
       </c>
-      <c r="K100" s="22">
+      <c r="M100" s="22">
         <v>0.62939999999999996</v>
       </c>
-      <c r="L100" s="22">
-        <f t="shared" si="8"/>
+      <c r="N100" s="22">
+        <f t="shared" si="17"/>
         <v>0.51915</v>
       </c>
-      <c r="M100" s="22">
-        <f t="shared" si="9"/>
+      <c r="O100" s="22">
+        <f t="shared" si="18"/>
         <v>0.68084999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P100" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q100" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -5976,36 +7472,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I101" s="22">
+      <c r="J101" s="13">
+        <v>5</v>
+      </c>
+      <c r="K101" s="22">
         <v>0.68</v>
       </c>
-      <c r="J101" s="22">
+      <c r="L101" s="22">
         <v>0.64668000000000003</v>
       </c>
-      <c r="K101" s="22">
+      <c r="M101" s="22">
         <v>0.71332000000000007</v>
       </c>
-      <c r="L101" s="22">
-        <f t="shared" si="8"/>
+      <c r="N101" s="22">
+        <f t="shared" si="17"/>
         <v>0.58004</v>
       </c>
-      <c r="M101" s="22">
-        <f t="shared" si="9"/>
+      <c r="O101" s="22">
+        <f t="shared" si="18"/>
         <v>0.7799600000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P101" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q101" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6023,36 +7534,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H102" s="13">
         <v>0</v>
       </c>
-      <c r="I102" s="22">
+      <c r="I102" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="22">
         <v>0.23</v>
       </c>
-      <c r="J102" s="22">
+      <c r="L102" s="22">
         <v>0.21628</v>
       </c>
-      <c r="K102" s="22">
+      <c r="M102" s="22">
         <v>0.24372000000000002</v>
       </c>
-      <c r="L102" s="22">
-        <f t="shared" si="8"/>
+      <c r="N102" s="22">
+        <f t="shared" si="17"/>
         <v>0.20599000000000001</v>
       </c>
-      <c r="M102" s="22">
-        <f t="shared" si="9"/>
+      <c r="O102" s="22">
+        <f t="shared" si="18"/>
         <v>0.25401000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P102" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6070,36 +7596,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H103" s="13">
-        <v>1</v>
-      </c>
-      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="13">
+        <v>1</v>
+      </c>
+      <c r="K103" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J103" s="22">
+      <c r="L103" s="22">
         <v>0.26843999999999996</v>
       </c>
-      <c r="K103" s="22">
+      <c r="M103" s="22">
         <v>0.31156</v>
       </c>
-      <c r="L103" s="22">
-        <f t="shared" si="8"/>
+      <c r="N103" s="22">
+        <f t="shared" si="17"/>
         <v>0.24687999999999993</v>
       </c>
-      <c r="M103" s="22">
-        <f t="shared" si="9"/>
+      <c r="O103" s="22">
+        <f t="shared" si="18"/>
         <v>0.33312000000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P103" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6117,36 +7658,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I104" s="22">
+      <c r="J104" s="13">
+        <v>2</v>
+      </c>
+      <c r="K104" s="22">
         <v>0.36</v>
       </c>
-      <c r="J104" s="22">
+      <c r="L104" s="22">
         <v>0.3306</v>
       </c>
-      <c r="K104" s="22">
+      <c r="M104" s="22">
         <v>0.38939999999999997</v>
       </c>
-      <c r="L104" s="22">
-        <f t="shared" si="8"/>
+      <c r="N104" s="22">
+        <f t="shared" si="17"/>
         <v>0.29385000000000006</v>
       </c>
-      <c r="M104" s="22">
-        <f t="shared" si="9"/>
+      <c r="O104" s="22">
+        <f t="shared" si="18"/>
         <v>0.42614999999999992</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P104" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q104" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6164,36 +7720,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I105" s="22">
+      <c r="J105" s="13">
+        <v>3</v>
+      </c>
+      <c r="K105" s="22">
         <v>0.42</v>
       </c>
-      <c r="J105" s="22">
+      <c r="L105" s="22">
         <v>0.38079999999999997</v>
       </c>
-      <c r="K105" s="22">
+      <c r="M105" s="22">
         <v>0.4592</v>
       </c>
-      <c r="L105" s="22">
-        <f t="shared" si="8"/>
+      <c r="N105" s="22">
+        <f t="shared" si="17"/>
         <v>0.32199999999999995</v>
       </c>
-      <c r="M105" s="22">
-        <f t="shared" si="9"/>
+      <c r="O105" s="22">
+        <f t="shared" si="18"/>
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P105" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q105" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6211,36 +7782,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I106" s="22">
+      <c r="J106" s="13">
+        <v>4</v>
+      </c>
+      <c r="K106" s="22">
         <v>0.49</v>
       </c>
-      <c r="J106" s="22">
+      <c r="L106" s="22">
         <v>0.43903999999999999</v>
       </c>
-      <c r="K106" s="22">
+      <c r="M106" s="22">
         <v>0.54096</v>
       </c>
-      <c r="L106" s="22">
-        <f t="shared" si="8"/>
+      <c r="N106" s="22">
+        <f t="shared" si="17"/>
         <v>0.34986</v>
       </c>
-      <c r="M106" s="22">
-        <f t="shared" si="9"/>
+      <c r="O106" s="22">
+        <f t="shared" si="18"/>
         <v>0.63014000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P106" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q106" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6258,36 +7844,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H107" s="13">
+        <v>0</v>
+      </c>
+      <c r="I107" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I107" s="22">
+      <c r="J107" s="13">
+        <v>5</v>
+      </c>
+      <c r="K107" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J107" s="22">
+      <c r="L107" s="22">
         <v>0.49140000000000006</v>
       </c>
-      <c r="K107" s="22">
+      <c r="M107" s="22">
         <v>0.62860000000000005</v>
       </c>
-      <c r="L107" s="22">
-        <f t="shared" si="8"/>
+      <c r="N107" s="22">
+        <f t="shared" si="17"/>
         <v>0.35420000000000007</v>
       </c>
-      <c r="M107" s="22">
-        <f t="shared" si="9"/>
+      <c r="O107" s="22">
+        <f t="shared" si="18"/>
         <v>0.76580000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P107" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q107" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6305,36 +7906,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" s="13">
         <v>0</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="22">
         <v>0.23</v>
       </c>
-      <c r="J108" s="22">
+      <c r="L108" s="22">
         <v>0.21628</v>
       </c>
-      <c r="K108" s="22">
+      <c r="M108" s="22">
         <v>0.24372000000000002</v>
       </c>
-      <c r="L108" s="22">
-        <f t="shared" si="8"/>
+      <c r="N108" s="22">
+        <f t="shared" si="17"/>
         <v>0.20599000000000001</v>
       </c>
-      <c r="M108" s="22">
-        <f t="shared" si="9"/>
+      <c r="O108" s="22">
+        <f t="shared" si="18"/>
         <v>0.25401000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P108" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6352,36 +7968,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H109" s="13">
-        <v>1</v>
-      </c>
-      <c r="I109" s="22">
+        <v>0</v>
+      </c>
+      <c r="I109" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="13">
+        <v>1</v>
+      </c>
+      <c r="K109" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J109" s="22">
+      <c r="L109" s="22">
         <v>0.26236000000000004</v>
       </c>
-      <c r="K109" s="22">
+      <c r="M109" s="22">
         <v>0.29764000000000002</v>
       </c>
-      <c r="L109" s="22">
-        <f t="shared" si="8"/>
+      <c r="N109" s="22">
+        <f t="shared" si="17"/>
         <v>0.24472000000000005</v>
       </c>
-      <c r="M109" s="22">
-        <f t="shared" si="9"/>
+      <c r="O109" s="22">
+        <f t="shared" si="18"/>
         <v>0.31528</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P109" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6399,36 +8030,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I110" s="22">
+      <c r="J110" s="13">
+        <v>2</v>
+      </c>
+      <c r="K110" s="22">
         <v>0.34</v>
       </c>
-      <c r="J110" s="22">
+      <c r="L110" s="22">
         <v>0.31648000000000004</v>
       </c>
-      <c r="K110" s="22">
+      <c r="M110" s="22">
         <v>0.36352000000000001</v>
       </c>
-      <c r="L110" s="22">
-        <f t="shared" si="8"/>
+      <c r="N110" s="22">
+        <f t="shared" si="17"/>
         <v>0.28708000000000006</v>
       </c>
-      <c r="M110" s="22">
-        <f t="shared" si="9"/>
+      <c r="O110" s="22">
+        <f t="shared" si="18"/>
         <v>0.39291999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P110" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q110" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6446,36 +8092,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I111" s="22">
+      <c r="J111" s="13">
+        <v>3</v>
+      </c>
+      <c r="K111" s="22">
         <v>0.42</v>
       </c>
-      <c r="J111" s="22">
+      <c r="L111" s="22">
         <v>0.38863999999999999</v>
       </c>
-      <c r="K111" s="22">
+      <c r="M111" s="22">
         <v>0.45135999999999998</v>
       </c>
-      <c r="L111" s="22">
-        <f t="shared" si="8"/>
+      <c r="N111" s="22">
+        <f t="shared" si="17"/>
         <v>0.34160000000000001</v>
       </c>
-      <c r="M111" s="22">
-        <f t="shared" si="9"/>
+      <c r="O111" s="22">
+        <f t="shared" si="18"/>
         <v>0.49839999999999995</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P111" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q111" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6493,36 +8154,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I112" s="22">
+      <c r="J112" s="13">
+        <v>4</v>
+      </c>
+      <c r="K112" s="22">
         <v>0.5</v>
       </c>
-      <c r="J112" s="22">
+      <c r="L112" s="22">
         <v>0.46276</v>
       </c>
-      <c r="K112" s="22">
+      <c r="M112" s="22">
         <v>0.53723999999999994</v>
       </c>
-      <c r="L112" s="22">
-        <f t="shared" si="8"/>
+      <c r="N112" s="22">
+        <f t="shared" si="17"/>
         <v>0.39759</v>
       </c>
-      <c r="M112" s="22">
-        <f t="shared" si="9"/>
+      <c r="O112" s="22">
+        <f t="shared" si="18"/>
         <v>0.60240999999999978</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P112" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q112" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6540,36 +8216,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I113" s="22">
+      <c r="J113" s="13">
+        <v>5</v>
+      </c>
+      <c r="K113" s="22">
         <v>0.59</v>
       </c>
-      <c r="J113" s="22">
+      <c r="L113" s="22">
         <v>0.54687999999999992</v>
       </c>
-      <c r="K113" s="22">
+      <c r="M113" s="22">
         <v>0.63312000000000002</v>
       </c>
-      <c r="L113" s="22">
-        <f t="shared" si="8"/>
+      <c r="N113" s="22">
+        <f t="shared" si="17"/>
         <v>0.46063999999999983</v>
       </c>
-      <c r="M113" s="22">
-        <f t="shared" si="9"/>
+      <c r="O113" s="22">
+        <f t="shared" si="18"/>
         <v>0.71936000000000011</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P113" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q113" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6587,36 +8278,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H114" s="13">
         <v>0</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I114" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="13">
+        <v>0</v>
+      </c>
+      <c r="K114" s="22">
         <v>0.12</v>
       </c>
-      <c r="J114" s="22">
+      <c r="L114" s="22">
         <v>0.11019999999999999</v>
       </c>
-      <c r="K114" s="22">
+      <c r="M114" s="22">
         <v>0.1298</v>
       </c>
-      <c r="L114" s="22">
-        <f t="shared" si="8"/>
+      <c r="N114" s="22">
+        <f t="shared" si="17"/>
         <v>0.10285</v>
       </c>
-      <c r="M114" s="22">
-        <f t="shared" si="9"/>
+      <c r="O114" s="22">
+        <f t="shared" si="18"/>
         <v>0.13714999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P114" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6634,36 +8340,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H115" s="13">
-        <v>1</v>
-      </c>
-      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J115" s="13">
+        <v>1</v>
+      </c>
+      <c r="K115" s="22">
         <v>0.18</v>
       </c>
-      <c r="J115" s="22">
+      <c r="L115" s="22">
         <v>0.16236</v>
       </c>
-      <c r="K115" s="22">
+      <c r="M115" s="22">
         <v>0.19763999999999998</v>
       </c>
-      <c r="L115" s="22">
-        <f t="shared" si="8"/>
+      <c r="N115" s="22">
+        <f t="shared" si="17"/>
         <v>0.14472000000000002</v>
       </c>
-      <c r="M115" s="22">
-        <f t="shared" si="9"/>
+      <c r="O115" s="22">
+        <f t="shared" si="18"/>
         <v>0.21527999999999997</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P115" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="36">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6681,36 +8402,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="I116" s="22">
+      <c r="J116" s="13">
+        <v>2</v>
+      </c>
+      <c r="K116" s="22">
         <v>0.24</v>
       </c>
-      <c r="J116" s="22">
+      <c r="L116" s="22">
         <v>0.21256</v>
       </c>
-      <c r="K116" s="22">
+      <c r="M116" s="22">
         <v>0.26744000000000001</v>
       </c>
-      <c r="L116" s="22">
-        <f t="shared" si="8"/>
+      <c r="N116" s="22">
+        <f t="shared" si="17"/>
         <v>0.17826</v>
       </c>
-      <c r="M116" s="22">
-        <f t="shared" si="9"/>
+      <c r="O116" s="22">
+        <f t="shared" si="18"/>
         <v>0.30174000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P116" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q116" s="36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6728,36 +8464,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H117" s="13">
+        <v>0</v>
+      </c>
+      <c r="I117" s="13">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="I117" s="22">
+      <c r="J117" s="13">
+        <v>3</v>
+      </c>
+      <c r="K117" s="22">
         <v>0.32</v>
       </c>
-      <c r="J117" s="22">
+      <c r="L117" s="22">
         <v>0.28079999999999999</v>
       </c>
-      <c r="K117" s="22">
+      <c r="M117" s="22">
         <v>0.35920000000000002</v>
       </c>
-      <c r="L117" s="22">
-        <f t="shared" si="8"/>
+      <c r="N117" s="22">
+        <f t="shared" si="17"/>
         <v>0.22199999999999998</v>
       </c>
-      <c r="M117" s="22">
-        <f t="shared" si="9"/>
+      <c r="O117" s="22">
+        <f t="shared" si="18"/>
         <v>0.41800000000000004</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P117" s="36">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q117" s="36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6775,36 +8526,51 @@
         <v>Overall survival</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I118" s="22">
+      <c r="J118" s="13">
+        <v>4</v>
+      </c>
+      <c r="K118" s="22">
         <v>0.4</v>
       </c>
-      <c r="J118" s="22">
+      <c r="L118" s="22">
         <v>0.34708</v>
       </c>
-      <c r="K118" s="22">
+      <c r="M118" s="22">
         <v>0.45292000000000004</v>
       </c>
-      <c r="L118" s="22">
-        <f t="shared" si="8"/>
+      <c r="N118" s="22">
+        <f t="shared" si="17"/>
         <v>0.25446999999999997</v>
       </c>
-      <c r="M118" s="22">
-        <f t="shared" si="9"/>
+      <c r="O118" s="22">
+        <f t="shared" si="18"/>
         <v>0.54553000000000007</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P118" s="36">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Q118" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <f>plotsMetadata!$A$4</f>
         <v>1</v>
@@ -6822,33 +8588,48 @@
         <v>Overall survival</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H119" s="13">
+        <v>0</v>
+      </c>
+      <c r="I119" s="13">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I119" s="22">
+      <c r="J119" s="13">
+        <v>5</v>
+      </c>
+      <c r="K119" s="22">
         <v>0.49</v>
       </c>
-      <c r="J119" s="22">
+      <c r="L119" s="22">
         <v>0.41747999999999996</v>
       </c>
-      <c r="K119" s="22">
+      <c r="M119" s="22">
         <v>0.56252000000000002</v>
       </c>
-      <c r="L119" s="22">
-        <f t="shared" si="8"/>
+      <c r="N119" s="22">
+        <f t="shared" si="17"/>
         <v>0.2724399999999999</v>
       </c>
-      <c r="M119" s="22">
-        <f t="shared" si="9"/>
+      <c r="O119" s="22">
+        <f t="shared" si="18"/>
         <v>0.70756000000000008</v>
+      </c>
+      <c r="P119" s="36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q119" s="36">
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7600,19 +9381,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7620,21 +9401,21 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>20</v>
@@ -7643,7 +9424,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
+++ b/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="plotsMetadata" sheetId="9" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>Five-year relative conditional survival, grouped by age and stage.</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>5-year conditional survival for ovarian cancer</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>time factor</t>
   </si>
   <si>
-    <t>Relative proportion survival</t>
-  </si>
-  <si>
     <t>wbMinProp</t>
   </si>
   <si>
@@ -371,13 +365,19 @@
     <t>wbMaxDur</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>point</t>
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>Proportion surviving</t>
+  </si>
+  <si>
+    <t>Survival time (years)</t>
   </si>
 </sst>
 </file>
@@ -838,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,8 +851,7 @@
     <col min="4" max="6" width="32.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.83203125" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -868,64 +867,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="U1" s="6"/>
     </row>
@@ -937,10 +936,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="17" t="str">
         <f>CONCATENATE(D2," (",B2,")")</f>
@@ -950,19 +949,19 @@
         <v>20</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>0</v>
@@ -975,10 +974,10 @@
         <v>19</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>41</v>
@@ -999,10 +998,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="17" t="str">
         <f t="shared" ref="E3:E4" si="0">CONCATENATE(D3," (",B3,")")</f>
@@ -1015,16 +1014,16 @@
         <v>38</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>0</v>
@@ -1037,10 +1036,10 @@
         <v>19</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>41</v>
@@ -1061,17 +1060,17 @@
         <v>46</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Ovarian cancer 5-yr conditional survival by age-group and stage (SEER 1988-2001)</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>38</v>
@@ -1080,13 +1079,13 @@
         <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>0</v>
@@ -1101,10 +1100,10 @@
         <v>19</v>
       </c>
       <c r="P4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>41</v>
@@ -1326,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,43 +1364,43 @@
         <v>outcome</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>111</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Q1" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1461,11 +1460,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="36">
-        <f t="shared" ref="Q2:Q45" si="0">IF(CONCATENATE(F2,G2) = CONCATENATE(F3,G3), MIN(10, J3), J2)</f>
+        <f t="shared" ref="Q2:Q5" si="0">IF(CONCATENATE(F2,G2) = CONCATENATE(F3,G3), MIN(10, J3), J2)</f>
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T2" s="32">
         <v>0.1</v>
@@ -1498,6 +1497,10 @@
       <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="H3" s="13">
+        <f>IF(CONCATENATE(F3,G3)=CONCATENATE(F2,G2),H2, H2+1)</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="13">
         <f>IF(CONCATENATE(F3,G3)=CONCATENATE(F2,G2),I2 + 1, 0)</f>
         <v>1</v>
@@ -1525,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="36">
-        <f t="shared" ref="P2:P45" si="5">IF(CONCATENATE(F3,G3) = CONCATENATE(F2,G2), MAX(0, J2), J3)</f>
+        <f t="shared" ref="P3:P5" si="5">IF(CONCATENATE(F3,G3) = CONCATENATE(F2,G2), MAX(0, J2), J3)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="36">
@@ -1533,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T3" s="33">
         <v>0.75</v>
@@ -1565,10 +1568,11 @@
         <v>42</v>
       </c>
       <c r="H4" s="13">
+        <f t="shared" ref="H4:H45" si="6">IF(CONCATENATE(F4,G4)=CONCATENATE(F3,G3),H3, H3+1)</f>
         <v>0</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" ref="I3:I66" si="6">IF(CONCATENATE(F4,G4)=CONCATENATE(F3,G3),I3 + 1, 0)</f>
+        <f t="shared" ref="I4:I66" si="7">IF(CONCATENATE(F4,G4)=CONCATENATE(F3,G3),I3 + 1, 0)</f>
         <v>2</v>
       </c>
       <c r="J4" s="13">
@@ -1602,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T4" s="13">
         <v>3</v>
@@ -1634,10 +1638,11 @@
         <v>42</v>
       </c>
       <c r="H5" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J5" s="13">
@@ -1697,10 +1702,11 @@
         <v>42</v>
       </c>
       <c r="H6" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J6" s="13">
@@ -1760,10 +1766,11 @@
         <v>42</v>
       </c>
       <c r="H7" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J7" s="13">
@@ -1789,11 +1796,11 @@
         <v>1</v>
       </c>
       <c r="P7" s="36">
-        <f t="shared" ref="P7:P45" si="7">IF(CONCATENATE(F7,G7) = CONCATENATE(F6,G6), MAX(0, J6), J7)</f>
+        <f t="shared" ref="P7:P45" si="8">IF(CONCATENATE(F7,G7) = CONCATENATE(F6,G6), MAX(0, J6), J7)</f>
         <v>4</v>
       </c>
       <c r="Q7" s="36">
-        <f t="shared" ref="Q7:Q45" si="8">IF(CONCATENATE(F7,G7) = CONCATENATE(F8,G8), MIN(10, J8), J7)</f>
+        <f t="shared" ref="Q7:Q45" si="9">IF(CONCATENATE(F7,G7) = CONCATENATE(F8,G8), MIN(10, J8), J7)</f>
         <v>6</v>
       </c>
       <c r="W7" s="14"/>
@@ -1823,10 +1830,11 @@
         <v>42</v>
       </c>
       <c r="H8" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J8" s="13">
@@ -1852,11 +1860,11 @@
         <v>1</v>
       </c>
       <c r="P8" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q8" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="W8" s="14"/>
@@ -1886,10 +1894,11 @@
         <v>42</v>
       </c>
       <c r="H9" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J9" s="13">
@@ -1915,11 +1924,11 @@
         <v>1</v>
       </c>
       <c r="P9" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q9" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="W9" s="14"/>
@@ -1949,10 +1958,11 @@
         <v>42</v>
       </c>
       <c r="H10" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J10" s="13">
@@ -1978,11 +1988,11 @@
         <v>1</v>
       </c>
       <c r="P10" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q10" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="W10" s="14"/>
@@ -2012,10 +2022,11 @@
         <v>42</v>
       </c>
       <c r="H11" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J11" s="13">
@@ -2041,11 +2052,11 @@
         <v>1</v>
       </c>
       <c r="P11" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q11" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W11" s="14"/>
@@ -2075,10 +2086,11 @@
         <v>42</v>
       </c>
       <c r="H12" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="13">
@@ -2104,11 +2116,11 @@
         <v>1</v>
       </c>
       <c r="P12" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q12" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W12" s="14"/>
@@ -2138,10 +2150,11 @@
         <v>43</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J13" s="13">
@@ -2167,11 +2180,11 @@
         <v>1</v>
       </c>
       <c r="P13" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R13" s="4"/>
@@ -2206,10 +2219,11 @@
         <v>43</v>
       </c>
       <c r="H14" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J14" s="13">
@@ -2235,11 +2249,11 @@
         <v>1</v>
       </c>
       <c r="P14" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q14" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="W14" s="14"/>
@@ -2269,10 +2283,11 @@
         <v>43</v>
       </c>
       <c r="H15" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J15" s="13">
@@ -2298,11 +2313,11 @@
         <v>0.94300000000000017</v>
       </c>
       <c r="P15" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q15" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="W15" s="14"/>
@@ -2332,10 +2347,11 @@
         <v>43</v>
       </c>
       <c r="H16" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J16" s="13">
@@ -2361,11 +2377,11 @@
         <v>0.93275000000000019</v>
       </c>
       <c r="P16" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q16" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="W16" s="14"/>
@@ -2395,10 +2411,11 @@
         <v>43</v>
       </c>
       <c r="H17" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J17" s="13">
@@ -2424,11 +2441,11 @@
         <v>0.91075000000000017</v>
       </c>
       <c r="P17" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q17" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="W17" s="14"/>
@@ -2458,10 +2475,11 @@
         <v>43</v>
       </c>
       <c r="H18" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J18" s="13">
@@ -2487,11 +2505,11 @@
         <v>0.91225000000000023</v>
       </c>
       <c r="P18" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q18" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="W18" s="14"/>
@@ -2521,10 +2539,11 @@
         <v>43</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J19" s="13">
@@ -2550,11 +2569,11 @@
         <v>0.91375000000000028</v>
       </c>
       <c r="P19" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q19" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="W19" s="14"/>
@@ -2584,10 +2603,11 @@
         <v>43</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J20" s="13">
@@ -2613,11 +2633,11 @@
         <v>0.91525000000000034</v>
       </c>
       <c r="P20" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q20" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="W20" s="14"/>
@@ -2647,10 +2667,11 @@
         <v>43</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J21" s="13">
@@ -2676,11 +2697,11 @@
         <v>0.92850000000000033</v>
       </c>
       <c r="P21" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q21" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="W21" s="14"/>
@@ -2710,10 +2731,11 @@
         <v>43</v>
       </c>
       <c r="H22" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J22" s="13">
@@ -2739,11 +2761,11 @@
         <v>0.94175000000000031</v>
       </c>
       <c r="P22" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q22" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W22" s="14"/>
@@ -2773,10 +2795,11 @@
         <v>43</v>
       </c>
       <c r="H23" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="13">
@@ -2802,11 +2825,11 @@
         <v>0.96087499999999992</v>
       </c>
       <c r="P23" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q23" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W23" s="14"/>
@@ -2836,10 +2859,11 @@
         <v>44</v>
       </c>
       <c r="H24" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J24" s="13">
@@ -2865,11 +2889,11 @@
         <v>1</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W24" s="14"/>
@@ -2899,10 +2923,11 @@
         <v>44</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J25" s="13">
@@ -2928,11 +2953,11 @@
         <v>0.92975000000000019</v>
       </c>
       <c r="P25" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q25" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="W25" s="14"/>
@@ -2962,10 +2987,11 @@
         <v>44</v>
       </c>
       <c r="H26" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J26" s="13">
@@ -2991,11 +3017,11 @@
         <v>0.79025000000000012</v>
       </c>
       <c r="P26" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q26" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="W26" s="14"/>
@@ -3025,10 +3051,11 @@
         <v>44</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J27" s="13">
@@ -3054,11 +3081,11 @@
         <v>0.67425000000000013</v>
       </c>
       <c r="P27" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q27" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="W27" s="14"/>
@@ -3088,10 +3115,11 @@
         <v>44</v>
       </c>
       <c r="H28" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J28" s="13">
@@ -3117,11 +3145,11 @@
         <v>0.59350000000000014</v>
       </c>
       <c r="P28" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q28" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="W28" s="14"/>
@@ -3151,10 +3179,11 @@
         <v>44</v>
       </c>
       <c r="H29" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J29" s="13">
@@ -3180,11 +3209,11 @@
         <v>0.51275000000000015</v>
       </c>
       <c r="P29" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q29" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="W29" s="14"/>
@@ -3214,10 +3243,11 @@
         <v>44</v>
       </c>
       <c r="H30" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J30" s="13">
@@ -3243,11 +3273,11 @@
         <v>0.50250000000000017</v>
       </c>
       <c r="P30" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q30" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="W30" s="14"/>
@@ -3277,10 +3307,11 @@
         <v>44</v>
       </c>
       <c r="H31" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J31" s="13">
@@ -3306,11 +3337,11 @@
         <v>0.51575000000000015</v>
       </c>
       <c r="P31" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q31" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="W31" s="14"/>
@@ -3340,10 +3371,11 @@
         <v>44</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J32" s="13">
@@ -3369,11 +3401,11 @@
         <v>0.51725000000000021</v>
       </c>
       <c r="P32" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q32" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="W32" s="14"/>
@@ -3403,10 +3435,11 @@
         <v>44</v>
       </c>
       <c r="H33" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J33" s="13">
@@ -3432,11 +3465,11 @@
         <v>0.53050000000000019</v>
       </c>
       <c r="P33" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q33" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W33" s="14"/>
@@ -3466,10 +3499,11 @@
         <v>44</v>
       </c>
       <c r="H34" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="13">
@@ -3495,11 +3529,11 @@
         <v>0.56137500000000029</v>
       </c>
       <c r="P34" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q34" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="W34" s="14"/>
@@ -3529,10 +3563,11 @@
         <v>45</v>
       </c>
       <c r="H35" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J35" s="13">
@@ -3558,11 +3593,11 @@
         <v>1</v>
       </c>
       <c r="P35" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q35" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W35" s="14"/>
@@ -3592,10 +3627,11 @@
         <v>45</v>
       </c>
       <c r="H36" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J36" s="13">
@@ -3621,11 +3657,11 @@
         <v>0.71825000000000006</v>
       </c>
       <c r="P36" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q36" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -3653,10 +3689,11 @@
         <v>45</v>
       </c>
       <c r="H37" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J37" s="13">
@@ -3682,11 +3719,11 @@
         <v>0.40250000000000008</v>
       </c>
       <c r="P37" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q37" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -3714,10 +3751,11 @@
         <v>45</v>
       </c>
       <c r="H38" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J38" s="13">
@@ -3743,11 +3781,11 @@
         <v>0.32175000000000009</v>
       </c>
       <c r="P38" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q38" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -3775,10 +3813,11 @@
         <v>45</v>
       </c>
       <c r="H39" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J39" s="13">
@@ -3804,11 +3843,11 @@
         <v>0.32325000000000015</v>
       </c>
       <c r="P39" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q39" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -3836,10 +3875,11 @@
         <v>45</v>
       </c>
       <c r="H40" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J40" s="13">
@@ -3865,11 +3905,11 @@
         <v>0.32475000000000015</v>
       </c>
       <c r="P40" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q40" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -3897,10 +3937,11 @@
         <v>45</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J41" s="13">
@@ -3926,11 +3967,11 @@
         <v>0.33212500000000017</v>
       </c>
       <c r="P41" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q41" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -3958,10 +3999,11 @@
         <v>45</v>
       </c>
       <c r="H42" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J42" s="13">
@@ -3987,11 +4029,11 @@
         <v>0.34537500000000021</v>
       </c>
       <c r="P42" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q42" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4019,10 +4061,11 @@
         <v>45</v>
       </c>
       <c r="H43" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J43" s="13">
@@ -4048,11 +4091,11 @@
         <v>0.35275000000000017</v>
       </c>
       <c r="P43" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q43" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
@@ -4080,10 +4123,11 @@
         <v>45</v>
       </c>
       <c r="H44" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J44" s="13">
@@ -4109,11 +4153,11 @@
         <v>0.36600000000000021</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -4141,10 +4185,11 @@
         <v>45</v>
       </c>
       <c r="H45" s="13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J45" s="13">
@@ -4170,18 +4215,12 @@
         <v>0.36750000000000027</v>
       </c>
       <c r="P45" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q45" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I46" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -4211,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J47" s="13">
@@ -4225,19 +4264,19 @@
         <v>0.81</v>
       </c>
       <c r="M47" s="22">
-        <f t="shared" ref="M47:M70" si="9">MIN(1,K47*(1+$T$2))</f>
+        <f t="shared" ref="M47:M70" si="10">MIN(1,K47*(1+$T$2))</f>
         <v>0.9900000000000001</v>
       </c>
       <c r="N47" s="22">
-        <f t="shared" ref="N47:N70" si="10">MAX(0, L47 - (K47 - L47)*$T$3*(1 + J47/$T$4/K47))</f>
+        <f t="shared" ref="N47:N70" si="11">MAX(0, L47 - (K47 - L47)*$T$3*(1 + J47/$T$4/K47))</f>
         <v>0.74250000000000005</v>
       </c>
       <c r="O47" s="22">
-        <f t="shared" ref="O47:O70" si="11">MIN(1, M47 + (M47 - K47)*$T$3* (1 + J47/$T$4/K47))</f>
+        <f t="shared" ref="O47:O70" si="12">MIN(1, M47 + (M47 - K47)*$T$3* (1 + J47/$T$4/K47))</f>
         <v>1</v>
       </c>
       <c r="P47" s="36">
-        <f t="shared" ref="P47" si="12">IF(CONCATENATE(F47,G47) = CONCATENATE(F46,G46), MAX(0, J46), J47)</f>
+        <f t="shared" ref="P47" si="13">IF(CONCATENATE(F47,G47) = CONCATENATE(F46,G46), MAX(0, J46), J47)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="36">
@@ -4269,10 +4308,11 @@
         <v>42</v>
       </c>
       <c r="H48" s="13">
+        <f t="shared" ref="H48:H70" si="14">IF(CONCATENATE(F48,G48)=CONCATENATE(F47,G47),H47, H47+1)</f>
         <v>0</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J48" s="13">
@@ -4286,23 +4326,23 @@
         <v>0.81900000000000006</v>
       </c>
       <c r="M48" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N48" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.72575000000000012</v>
       </c>
       <c r="O48" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P48" s="36">
-        <f t="shared" ref="P48:P70" si="13">IF(CONCATENATE(F48,G48) = CONCATENATE(F47,G47), MAX(0, J47), J48)</f>
+        <f t="shared" ref="P48:P70" si="15">IF(CONCATENATE(F48,G48) = CONCATENATE(F47,G47), MAX(0, J47), J48)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="36">
-        <f t="shared" ref="Q48:Q70" si="14">IF(CONCATENATE(F48,G48) = CONCATENATE(F49,G49), MIN(5, J49), J48)</f>
+        <f t="shared" ref="Q48:Q70" si="16">IF(CONCATENATE(F48,G48) = CONCATENATE(F49,G49), MIN(5, J49), J48)</f>
         <v>2</v>
       </c>
     </row>
@@ -4330,10 +4370,11 @@
         <v>42</v>
       </c>
       <c r="H49" s="13">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J49" s="13">
@@ -4347,23 +4388,23 @@
         <v>0.83700000000000008</v>
       </c>
       <c r="M49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N49" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71725000000000017</v>
       </c>
       <c r="O49" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P49" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q49" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -4391,10 +4432,11 @@
         <v>42</v>
       </c>
       <c r="H50" s="13">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J50" s="13">
@@ -4408,23 +4450,23 @@
         <v>0.83700000000000008</v>
       </c>
       <c r="M50" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N50" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.69225000000000014</v>
       </c>
       <c r="O50" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P50" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Q50" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -4452,10 +4494,11 @@
         <v>42</v>
       </c>
       <c r="H51" s="13">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I51" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J51" s="13">
@@ -4469,23 +4512,23 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="M51" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N51" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.67549999999999999</v>
       </c>
       <c r="O51" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P51" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="Q51" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -4513,10 +4556,11 @@
         <v>42</v>
       </c>
       <c r="H52" s="13">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I52" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J52" s="13">
@@ -4530,23 +4574,23 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="M52" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N52" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.65875000000000006</v>
       </c>
       <c r="O52" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P52" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="Q52" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -4574,10 +4618,11 @@
         <v>43</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I53" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J53" s="13">
@@ -4591,23 +4636,23 @@
         <v>0.58500000000000008</v>
       </c>
       <c r="M53" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="N53" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.53625000000000012</v>
       </c>
       <c r="O53" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.76375000000000015</v>
       </c>
       <c r="P53" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q53" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -4635,10 +4680,11 @@
         <v>43</v>
       </c>
       <c r="H54" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J54" s="13">
@@ -4652,23 +4698,23 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.78100000000000003</v>
       </c>
       <c r="N54" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.56075000000000008</v>
       </c>
       <c r="O54" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85925000000000007</v>
       </c>
       <c r="P54" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q54" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -4696,10 +4742,11 @@
         <v>43</v>
       </c>
       <c r="H55" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J55" s="13">
@@ -4713,23 +4760,23 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="M55" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.83600000000000008</v>
       </c>
       <c r="N55" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57700000000000007</v>
       </c>
       <c r="O55" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94300000000000017</v>
       </c>
       <c r="P55" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q55" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -4757,10 +4804,11 @@
         <v>43</v>
       </c>
       <c r="H56" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J56" s="13">
@@ -4774,23 +4822,23 @@
         <v>0.71100000000000008</v>
       </c>
       <c r="M56" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.86900000000000011</v>
       </c>
       <c r="N56" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57675000000000021</v>
       </c>
       <c r="O56" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P56" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Q56" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -4818,10 +4866,11 @@
         <v>43</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J57" s="13">
@@ -4835,23 +4884,23 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90200000000000002</v>
       </c>
       <c r="N57" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57650000000000001</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P57" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="Q57" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -4879,10 +4928,11 @@
         <v>43</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J58" s="13">
@@ -4896,23 +4946,23 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="M58" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93500000000000005</v>
       </c>
       <c r="N58" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57625000000000015</v>
       </c>
       <c r="O58" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P58" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="Q58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -4940,10 +4990,11 @@
         <v>44</v>
       </c>
       <c r="H59" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J59" s="13">
@@ -4957,23 +5008,23 @@
         <v>0.30600000000000005</v>
       </c>
       <c r="M59" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37400000000000005</v>
       </c>
       <c r="N59" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28050000000000008</v>
       </c>
       <c r="O59" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.39950000000000008</v>
       </c>
       <c r="P59" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q59" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -5001,10 +5052,11 @@
         <v>44</v>
       </c>
       <c r="H60" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J60" s="13">
@@ -5018,23 +5070,23 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="M60" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.41800000000000004</v>
       </c>
       <c r="N60" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28850000000000003</v>
       </c>
       <c r="O60" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.47150000000000009</v>
       </c>
       <c r="P60" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5062,10 +5114,11 @@
         <v>44</v>
       </c>
       <c r="H61" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J61" s="13">
@@ -5079,23 +5132,23 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="M61" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.48400000000000004</v>
       </c>
       <c r="N61" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31300000000000006</v>
       </c>
       <c r="O61" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.56700000000000017</v>
       </c>
       <c r="P61" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q61" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -5123,10 +5176,11 @@
         <v>44</v>
       </c>
       <c r="H62" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J62" s="13">
@@ -5140,23 +5194,23 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="M62" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.56100000000000005</v>
       </c>
       <c r="N62" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.34575</v>
       </c>
       <c r="O62" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.67425000000000013</v>
       </c>
       <c r="P62" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Q62" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -5184,10 +5238,11 @@
         <v>44</v>
       </c>
       <c r="H63" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J63" s="13">
@@ -5201,23 +5256,23 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="M63" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.627</v>
       </c>
       <c r="N63" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37025000000000019</v>
       </c>
       <c r="O63" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.76975000000000016</v>
       </c>
       <c r="P63" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="Q63" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -5245,10 +5300,11 @@
         <v>44</v>
       </c>
       <c r="H64" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J64" s="13">
@@ -5262,23 +5318,23 @@
         <v>0.58500000000000008</v>
       </c>
       <c r="M64" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="N64" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41125000000000023</v>
       </c>
       <c r="O64" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.88875000000000026</v>
       </c>
       <c r="P64" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="Q64" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -5306,10 +5362,11 @@
         <v>45</v>
       </c>
       <c r="H65" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J65" s="13">
@@ -5323,23 +5380,23 @@
         <v>0.15300000000000002</v>
       </c>
       <c r="M65" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18700000000000003</v>
       </c>
       <c r="N65" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14025000000000004</v>
       </c>
       <c r="O65" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19975000000000004</v>
       </c>
       <c r="P65" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q65" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -5367,10 +5424,11 @@
         <v>45</v>
       </c>
       <c r="H66" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J66" s="13">
@@ -5384,23 +5442,23 @@
         <v>0.216</v>
       </c>
       <c r="M66" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.26400000000000001</v>
       </c>
       <c r="N66" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17300000000000001</v>
       </c>
       <c r="O66" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.30700000000000005</v>
       </c>
       <c r="P66" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q66" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5428,10 +5486,11 @@
         <v>45</v>
       </c>
       <c r="H67" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" ref="I67:I119" si="15">IF(CONCATENATE(F67,G67)=CONCATENATE(F66,G66),I66 + 1, 0)</f>
+        <f t="shared" ref="I67:I119" si="17">IF(CONCATENATE(F67,G67)=CONCATENATE(F66,G66),I66 + 1, 0)</f>
         <v>2</v>
       </c>
       <c r="J67" s="13">
@@ -5441,27 +5500,27 @@
         <v>0.3</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" ref="L67:L70" si="16">MAX(0,K67*(1-$T$2))</f>
+        <f t="shared" ref="L67:L70" si="18">MAX(0,K67*(1-$T$2))</f>
         <v>0.27</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33</v>
       </c>
       <c r="N67" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19750000000000009</v>
       </c>
       <c r="O67" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40250000000000008</v>
       </c>
       <c r="P67" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q67" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -5489,10 +5548,11 @@
         <v>45</v>
       </c>
       <c r="H68" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I68" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J68" s="13">
@@ -5502,27 +5562,27 @@
         <v>0.36</v>
       </c>
       <c r="L68" s="22">
+        <f t="shared" si="18"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="M68" s="22">
+        <f t="shared" si="10"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="N68" s="22">
+        <f t="shared" si="11"/>
+        <v>0.22200000000000009</v>
+      </c>
+      <c r="O68" s="22">
+        <f t="shared" si="12"/>
+        <v>0.49800000000000011</v>
+      </c>
+      <c r="P68" s="36">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q68" s="36">
         <f t="shared" si="16"/>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="M68" s="22">
-        <f t="shared" si="9"/>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N68" s="22">
-        <f t="shared" si="10"/>
-        <v>0.22200000000000009</v>
-      </c>
-      <c r="O68" s="22">
-        <f t="shared" si="11"/>
-        <v>0.49800000000000011</v>
-      </c>
-      <c r="P68" s="36">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Q68" s="36">
-        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -5550,10 +5610,11 @@
         <v>45</v>
       </c>
       <c r="H69" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I69" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J69" s="13">
@@ -5563,27 +5624,27 @@
         <v>0.47</v>
       </c>
       <c r="L69" s="22">
+        <f t="shared" si="18"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M69" s="22">
+        <f t="shared" si="10"/>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N69" s="22">
+        <f t="shared" si="11"/>
+        <v>0.28775000000000006</v>
+      </c>
+      <c r="O69" s="22">
+        <f t="shared" si="12"/>
+        <v>0.65225000000000011</v>
+      </c>
+      <c r="P69" s="36">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q69" s="36">
         <f t="shared" si="16"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="M69" s="22">
-        <f t="shared" si="9"/>
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="N69" s="22">
-        <f t="shared" si="10"/>
-        <v>0.28775000000000006</v>
-      </c>
-      <c r="O69" s="22">
-        <f t="shared" si="11"/>
-        <v>0.65225000000000011</v>
-      </c>
-      <c r="P69" s="36">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q69" s="36">
-        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -5611,10 +5672,11 @@
         <v>45</v>
       </c>
       <c r="H70" s="13">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="I70" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J70" s="13">
@@ -5624,37 +5686,33 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L70" s="22">
+        <f t="shared" si="18"/>
+        <v>0.50400000000000011</v>
+      </c>
+      <c r="M70" s="22">
+        <f t="shared" si="10"/>
+        <v>0.6160000000000001</v>
+      </c>
+      <c r="N70" s="22">
+        <f t="shared" si="11"/>
+        <v>0.3370000000000003</v>
+      </c>
+      <c r="O70" s="22">
+        <f t="shared" si="12"/>
+        <v>0.78300000000000025</v>
+      </c>
+      <c r="P70" s="36">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q70" s="36">
         <f t="shared" si="16"/>
-        <v>0.50400000000000011</v>
-      </c>
-      <c r="M70" s="22">
-        <f t="shared" si="9"/>
-        <v>0.6160000000000001</v>
-      </c>
-      <c r="N70" s="22">
-        <f t="shared" si="10"/>
-        <v>0.3370000000000003</v>
-      </c>
-      <c r="O70" s="22">
-        <f t="shared" si="11"/>
-        <v>0.78300000000000025</v>
-      </c>
-      <c r="P70" s="36">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q70" s="36">
-        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="I71" s="13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
@@ -5674,10 +5732,10 @@
         <v>Overall survival</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>42</v>
@@ -5686,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J72" s="13">
@@ -5702,19 +5760,19 @@
         <v>0.91980000000000006</v>
       </c>
       <c r="N72" s="22">
-        <f t="shared" ref="N72:N119" si="17">MAX(0, L72 - (K72 - L72)*$T$3*(1 + J72/$T$4))</f>
+        <f t="shared" ref="N72:N119" si="19">MAX(0, L72 - (K72 - L72)*$T$3*(1 + J72/$T$4))</f>
         <v>0.89284999999999992</v>
       </c>
       <c r="O72" s="22">
-        <f t="shared" ref="O72:O119" si="18">MIN(1, M72 + (M72 - K72)*$T$3* (1 + J72/$T$4))</f>
+        <f t="shared" ref="O72:O119" si="20">MIN(1, M72 + (M72 - K72)*$T$3* (1 + J72/$T$4))</f>
         <v>0.92715000000000014</v>
       </c>
       <c r="P72" s="36">
-        <f t="shared" ref="P72" si="19">IF(CONCATENATE(F72,G72) = CONCATENATE(F71,G71), MAX(0, J71), J72)</f>
+        <f t="shared" ref="P72" si="21">IF(CONCATENATE(F72,G72) = CONCATENATE(F71,G71), MAX(0, J71), J72)</f>
         <v>0</v>
       </c>
       <c r="Q72" s="36">
-        <f t="shared" ref="Q72" si="20">IF(CONCATENATE(F72,G72) = CONCATENATE(F73,G73), MIN(5, J73), J72)</f>
+        <f t="shared" ref="Q72" si="22">IF(CONCATENATE(F72,G72) = CONCATENATE(F73,G73), MIN(5, J73), J72)</f>
         <v>1</v>
       </c>
     </row>
@@ -5736,19 +5794,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="13">
+        <f t="shared" ref="H73:H119" si="23">IF(CONCATENATE(F73,G73)=CONCATENATE(F72,G72),H72, H72+1)</f>
         <v>0</v>
       </c>
       <c r="I73" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J73" s="13">
@@ -5764,19 +5823,19 @@
         <v>0.92980000000000007</v>
       </c>
       <c r="N73" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.90039999999999998</v>
       </c>
       <c r="O73" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.9396000000000001</v>
       </c>
       <c r="P73" s="36">
-        <f t="shared" ref="P73:P119" si="21">IF(CONCATENATE(F73,G73) = CONCATENATE(F72,G72), MAX(0, J72), J73)</f>
+        <f t="shared" ref="P73:P119" si="24">IF(CONCATENATE(F73,G73) = CONCATENATE(F72,G72), MAX(0, J72), J73)</f>
         <v>0</v>
       </c>
       <c r="Q73" s="36">
-        <f t="shared" ref="Q73:Q119" si="22">IF(CONCATENATE(F73,G73) = CONCATENATE(F74,G74), MIN(5, J74), J73)</f>
+        <f t="shared" ref="Q73:Q119" si="25">IF(CONCATENATE(F73,G73) = CONCATENATE(F74,G74), MIN(5, J74), J73)</f>
         <v>2</v>
       </c>
     </row>
@@ -5798,19 +5857,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H74" s="13">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I74" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J74" s="13">
@@ -5826,19 +5886,19 @@
         <v>0.93980000000000008</v>
       </c>
       <c r="N74" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.90795000000000003</v>
       </c>
       <c r="O74" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95205000000000006</v>
       </c>
       <c r="P74" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q74" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -5860,19 +5920,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H75" s="13">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J75" s="13">
@@ -5888,19 +5949,19 @@
         <v>0.94979999999999998</v>
       </c>
       <c r="N75" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.91549999999999987</v>
       </c>
       <c r="O75" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.96450000000000002</v>
       </c>
       <c r="P75" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q75" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -5922,19 +5983,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H76" s="13">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I76" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J76" s="13">
@@ -5950,19 +6012,19 @@
         <v>0.95979999999999999</v>
       </c>
       <c r="N76" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.92304999999999993</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97694999999999999</v>
       </c>
       <c r="P76" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q76" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -5984,19 +6046,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H77" s="13">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I77" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J77" s="13">
@@ -6012,19 +6075,19 @@
         <v>0.97175999999999996</v>
       </c>
       <c r="N77" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.92471999999999999</v>
       </c>
       <c r="O77" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.99527999999999994</v>
       </c>
       <c r="P77" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q77" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -6046,19 +6109,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H78" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J78" s="13">
@@ -6074,19 +6138,19 @@
         <v>0.86743999999999999</v>
       </c>
       <c r="N78" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.79197999999999991</v>
       </c>
       <c r="O78" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.88802000000000003</v>
       </c>
       <c r="P78" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q78" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -6108,19 +6172,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H79" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I79" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J79" s="13">
@@ -6136,19 +6201,19 @@
         <v>0.9194</v>
       </c>
       <c r="N79" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.83120000000000005</v>
       </c>
       <c r="O79" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94879999999999998</v>
       </c>
       <c r="P79" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q79" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -6170,19 +6235,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I80" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J80" s="13">
@@ -6198,19 +6264,19 @@
         <v>0.93332000000000004</v>
       </c>
       <c r="N80" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.82503000000000004</v>
       </c>
       <c r="O80" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97497</v>
       </c>
       <c r="P80" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q80" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -6232,19 +6298,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I81" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J81" s="13">
@@ -6260,19 +6327,19 @@
         <v>0.94724000000000008</v>
       </c>
       <c r="N81" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.81689999999999996</v>
       </c>
       <c r="O81" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P81" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q81" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6294,19 +6361,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I82" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J82" s="13">
@@ -6322,19 +6390,19 @@
         <v>0.97116000000000002</v>
       </c>
       <c r="N82" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.81681000000000015</v>
       </c>
       <c r="O82" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P82" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q82" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -6356,19 +6424,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H83" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="I83" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J83" s="13">
@@ -6384,19 +6453,19 @@
         <v>0.95900000000000007</v>
       </c>
       <c r="N83" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.7629999999999999</v>
       </c>
       <c r="O83" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P83" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q83" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -6418,19 +6487,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H84" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I84" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J84" s="13">
@@ -6446,19 +6516,19 @@
         <v>0.76547999999999994</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.69541000000000008</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.7845899999999999</v>
       </c>
       <c r="P84" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q84" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -6480,19 +6550,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H85" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I85" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J85" s="13">
@@ -6508,19 +6579,19 @@
         <v>0.79744000000000004</v>
       </c>
       <c r="N85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.71511999999999998</v>
       </c>
       <c r="O85" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.82488000000000006</v>
       </c>
       <c r="P85" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q85" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -6542,19 +6613,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H86" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I86" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J86" s="13">
@@ -6570,19 +6642,19 @@
         <v>0.82940000000000003</v>
       </c>
       <c r="N86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.73385000000000011</v>
       </c>
       <c r="O86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.86614999999999998</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -6604,19 +6676,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I87" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J87" s="13">
@@ -6632,19 +6705,19 @@
         <v>0.8613599999999999</v>
       </c>
       <c r="N87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.75160000000000005</v>
       </c>
       <c r="O87" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90839999999999987</v>
       </c>
       <c r="P87" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q87" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6666,19 +6739,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H88" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I88" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J88" s="13">
@@ -6694,19 +6768,19 @@
         <v>0.89332</v>
       </c>
       <c r="N88" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.76837</v>
       </c>
       <c r="O88" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95162999999999998</v>
       </c>
       <c r="P88" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q88" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -6728,19 +6802,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H89" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="I89" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J89" s="13">
@@ -6756,19 +6831,19 @@
         <v>0.91332000000000002</v>
       </c>
       <c r="N89" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.78003999999999996</v>
       </c>
       <c r="O89" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97996000000000005</v>
       </c>
       <c r="P89" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q89" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -6790,19 +6865,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H90" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I90" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J90" s="13">
@@ -6818,19 +6894,19 @@
         <v>0.53920000000000001</v>
       </c>
       <c r="N90" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.43140000000000001</v>
       </c>
       <c r="O90" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.56859999999999999</v>
       </c>
       <c r="P90" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q90" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -6852,19 +6928,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H91" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I91" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J91" s="13">
@@ -6880,19 +6957,19 @@
         <v>0.65095999999999998</v>
       </c>
       <c r="N91" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.49807999999999997</v>
       </c>
       <c r="O91" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.70191999999999999</v>
       </c>
       <c r="P91" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q91" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -6914,19 +6991,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H92" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I92" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J92" s="13">
@@ -6942,19 +7020,19 @@
         <v>0.71879999999999999</v>
       </c>
       <c r="N92" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.52770000000000006</v>
       </c>
       <c r="O92" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.7923</v>
       </c>
       <c r="P92" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q92" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -6976,19 +7054,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H93" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I93" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J93" s="13">
@@ -7004,19 +7083,19 @@
         <v>0.76859999999999995</v>
       </c>
       <c r="N93" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.52849999999999997</v>
       </c>
       <c r="O93" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.87149999999999994</v>
       </c>
       <c r="P93" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q93" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -7038,19 +7117,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H94" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I94" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J94" s="13">
@@ -7066,19 +7146,19 @@
         <v>0.80035999999999996</v>
       </c>
       <c r="N94" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.49901000000000006</v>
       </c>
       <c r="O94" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94098999999999988</v>
       </c>
       <c r="P94" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q94" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7100,19 +7180,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H95" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="I95" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J95" s="13">
@@ -7128,19 +7209,19 @@
         <v>0.85016000000000003</v>
       </c>
       <c r="N95" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.48951999999999996</v>
       </c>
       <c r="O95" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P95" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q95" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7162,19 +7243,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H96" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I96" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J96" s="13">
@@ -7190,19 +7272,19 @@
         <v>0.44567999999999997</v>
       </c>
       <c r="N96" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.40256000000000003</v>
       </c>
       <c r="O96" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.45743999999999996</v>
       </c>
       <c r="P96" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q96" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -7224,19 +7306,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H97" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I97" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J97" s="13">
@@ -7252,19 +7335,19 @@
         <v>0.44763999999999998</v>
       </c>
       <c r="N97" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39472000000000002</v>
       </c>
       <c r="O97" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.46527999999999997</v>
       </c>
       <c r="P97" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q97" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -7286,19 +7369,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I98" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J98" s="13">
@@ -7314,19 +7398,19 @@
         <v>0.49959999999999999</v>
       </c>
       <c r="N98" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.43589999999999995</v>
       </c>
       <c r="O98" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.52410000000000001</v>
       </c>
       <c r="P98" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q98" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -7348,19 +7432,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H99" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I99" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J99" s="13">
@@ -7376,19 +7461,19 @@
         <v>0.56547999999999998</v>
       </c>
       <c r="N99" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.47630000000000017</v>
       </c>
       <c r="O99" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.6036999999999999</v>
       </c>
       <c r="P99" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q99" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -7410,19 +7495,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H100" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I100" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J100" s="13">
@@ -7438,19 +7524,19 @@
         <v>0.62939999999999996</v>
       </c>
       <c r="N100" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.51915</v>
       </c>
       <c r="O100" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.68084999999999996</v>
       </c>
       <c r="P100" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q100" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7472,19 +7558,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H101" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="I101" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J101" s="13">
@@ -7500,19 +7587,19 @@
         <v>0.71332000000000007</v>
       </c>
       <c r="N101" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.58004</v>
       </c>
       <c r="O101" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.7799600000000001</v>
       </c>
       <c r="P101" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q101" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7534,19 +7621,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H102" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I102" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J102" s="13">
@@ -7562,19 +7650,19 @@
         <v>0.24372000000000002</v>
       </c>
       <c r="N102" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.20599000000000001</v>
       </c>
       <c r="O102" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25401000000000001</v>
       </c>
       <c r="P102" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q102" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -7596,19 +7684,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H103" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I103" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J103" s="13">
@@ -7624,19 +7713,19 @@
         <v>0.31156</v>
       </c>
       <c r="N103" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.24687999999999993</v>
       </c>
       <c r="O103" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.33312000000000003</v>
       </c>
       <c r="P103" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q103" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -7658,19 +7747,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I104" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J104" s="13">
@@ -7686,19 +7776,19 @@
         <v>0.38939999999999997</v>
       </c>
       <c r="N104" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.29385000000000006</v>
       </c>
       <c r="O104" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.42614999999999992</v>
       </c>
       <c r="P104" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q104" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -7720,19 +7810,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I105" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J105" s="13">
@@ -7748,19 +7839,19 @@
         <v>0.4592</v>
       </c>
       <c r="N105" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.32199999999999995</v>
       </c>
       <c r="O105" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.51800000000000002</v>
       </c>
       <c r="P105" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q105" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -7782,19 +7873,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H106" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I106" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J106" s="13">
@@ -7810,19 +7902,19 @@
         <v>0.54096</v>
       </c>
       <c r="N106" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.34986</v>
       </c>
       <c r="O106" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.63014000000000003</v>
       </c>
       <c r="P106" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q106" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7844,19 +7936,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H107" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="I107" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J107" s="13">
@@ -7872,19 +7965,19 @@
         <v>0.62860000000000005</v>
       </c>
       <c r="N107" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.35420000000000007</v>
       </c>
       <c r="O107" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.76580000000000004</v>
       </c>
       <c r="P107" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q107" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -7906,19 +7999,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H108" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I108" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J108" s="13">
@@ -7934,19 +8028,19 @@
         <v>0.24372000000000002</v>
       </c>
       <c r="N108" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.20599000000000001</v>
       </c>
       <c r="O108" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25401000000000001</v>
       </c>
       <c r="P108" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q108" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -7968,19 +8062,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H109" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I109" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J109" s="13">
@@ -7996,19 +8091,19 @@
         <v>0.29764000000000002</v>
       </c>
       <c r="N109" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.24472000000000005</v>
       </c>
       <c r="O109" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.31528</v>
       </c>
       <c r="P109" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q109" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -8030,19 +8125,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H110" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I110" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J110" s="13">
@@ -8058,19 +8154,19 @@
         <v>0.36352000000000001</v>
       </c>
       <c r="N110" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.28708000000000006</v>
       </c>
       <c r="O110" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.39291999999999999</v>
       </c>
       <c r="P110" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q110" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -8092,19 +8188,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H111" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I111" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J111" s="13">
@@ -8120,19 +8217,19 @@
         <v>0.45135999999999998</v>
       </c>
       <c r="N111" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.34160000000000001</v>
       </c>
       <c r="O111" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.49839999999999995</v>
       </c>
       <c r="P111" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q111" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -8154,19 +8251,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H112" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I112" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J112" s="13">
@@ -8182,19 +8280,19 @@
         <v>0.53723999999999994</v>
       </c>
       <c r="N112" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39759</v>
       </c>
       <c r="O112" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.60240999999999978</v>
       </c>
       <c r="P112" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q112" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -8216,19 +8314,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H113" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="I113" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J113" s="13">
@@ -8244,19 +8343,19 @@
         <v>0.63312000000000002</v>
       </c>
       <c r="N113" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.46063999999999983</v>
       </c>
       <c r="O113" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.71936000000000011</v>
       </c>
       <c r="P113" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q113" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -8278,19 +8377,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H114" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I114" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J114" s="13">
@@ -8306,19 +8406,19 @@
         <v>0.1298</v>
       </c>
       <c r="N114" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10285</v>
       </c>
       <c r="O114" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.13714999999999999</v>
       </c>
       <c r="P114" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q114" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -8340,19 +8440,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H115" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I115" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J115" s="13">
@@ -8368,19 +8469,19 @@
         <v>0.19763999999999998</v>
       </c>
       <c r="N115" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14472000000000002</v>
       </c>
       <c r="O115" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21527999999999997</v>
       </c>
       <c r="P115" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q115" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -8402,19 +8503,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H116" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I116" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J116" s="13">
@@ -8430,19 +8532,19 @@
         <v>0.26744000000000001</v>
       </c>
       <c r="N116" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.17826</v>
       </c>
       <c r="O116" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.30174000000000001</v>
       </c>
       <c r="P116" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q116" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
@@ -8464,19 +8566,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H117" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I117" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J117" s="13">
@@ -8492,19 +8595,19 @@
         <v>0.35920000000000002</v>
       </c>
       <c r="N117" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.22199999999999998</v>
       </c>
       <c r="O117" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.41800000000000004</v>
       </c>
       <c r="P117" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q117" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -8526,19 +8629,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H118" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I118" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J118" s="13">
@@ -8554,19 +8658,19 @@
         <v>0.45292000000000004</v>
       </c>
       <c r="N118" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.25446999999999997</v>
       </c>
       <c r="O118" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.54553000000000007</v>
       </c>
       <c r="P118" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q118" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -8588,19 +8692,20 @@
         <v>Overall survival</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H119" s="13">
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="I119" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J119" s="13">
@@ -8616,19 +8721,19 @@
         <v>0.56252000000000002</v>
       </c>
       <c r="N119" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.2724399999999999</v>
       </c>
       <c r="O119" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.70756000000000008</v>
       </c>
       <c r="P119" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q119" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -9381,19 +9486,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9401,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>39</v>
@@ -9410,7 +9515,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9424,7 +9529,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
+++ b/ShinyApps/ConditionalSurvival/data/ConditionalSurvival.xlsx
@@ -374,10 +374,10 @@
     <t>curve</t>
   </si>
   <si>
-    <t>Proportion surviving</t>
-  </si>
-  <si>
-    <t>Survival time (years)</t>
+    <t>Life expectancy (years)</t>
+  </si>
+  <si>
+    <t>Survival rate</t>
   </si>
 </sst>
 </file>
@@ -838,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,10 +955,10 @@
         <v>97</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>62</v>
@@ -1017,10 +1017,10 @@
         <v>69</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>48</v>
@@ -1079,10 +1079,10 @@
         <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>48</v>
@@ -1327,7 +1327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
